--- a/Revenue-Figures.xlsx
+++ b/Revenue-Figures.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9BB03C0-27A4-E54D-BAA8-30B688A0474D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC7A9D3-ABC2-E243-9EFE-84CC024A8D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{B653257C-2690-4B6F-AF51-C145C2D6B17F}"/>
   </bookViews>
@@ -864,16 +864,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1190,11 +1190,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8322336-24AE-49A3-94E1-A2A75844FF21}">
-  <dimension ref="A1:Q202"/>
+  <dimension ref="A1:Q405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="G4:J200"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L187" sqref="L187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1217,43 +1217,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="O1" t="s">
@@ -1264,19 +1264,19 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
       <c r="O2" t="s">
         <v>11</v>
       </c>
@@ -1286,19 +1286,19 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
       <c r="O3" t="s">
         <v>246</v>
       </c>
@@ -1323,10 +1323,22 @@
       <c r="F4" s="2">
         <v>4652</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="G4" s="7">
+        <f>E4*F4</f>
+        <v>1010216.69</v>
+      </c>
+      <c r="H4" s="7">
+        <f>F4*$P$1</f>
+        <v>23260</v>
+      </c>
+      <c r="I4" s="7">
+        <f>G4+H4</f>
+        <v>1033476.69</v>
+      </c>
+      <c r="J4" s="7">
+        <f>(E4+$P$1)*150%</f>
+        <v>333.23624999999998</v>
+      </c>
       <c r="K4" s="3">
         <f>F4</f>
         <v>4652</v>
@@ -1353,12 +1365,24 @@
       <c r="F5" s="2">
         <v>3952.25</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G68" si="0">E5*F5</f>
+        <v>11886.391874999999</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H68" si="1">F5*$P$1</f>
+        <v>19761.25</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I68" si="2">G5+H5</f>
+        <v>31647.641875000001</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" ref="J5:J68" si="3">(E5+$P$1)*150%</f>
+        <v>12.01125</v>
+      </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:K68" si="0">F5</f>
+        <f t="shared" ref="K5:K68" si="4">F5</f>
         <v>3952.25</v>
       </c>
       <c r="L5" s="1"/>
@@ -1383,12 +1407,24 @@
       <c r="F6" s="2">
         <v>4580.5</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>15894.335000000001</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>22902.5</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>38796.834999999999</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="3"/>
+        <v>12.705000000000002</v>
+      </c>
       <c r="K6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4580.5</v>
       </c>
       <c r="L6" s="1"/>
@@ -1413,12 +1449,24 @@
       <c r="F7" s="2">
         <v>4455.25</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>14579.805624999999</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>22276.25</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="2"/>
+        <v>36856.055625000001</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="3"/>
+        <v>12.408750000000001</v>
+      </c>
       <c r="K7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4455.25</v>
       </c>
       <c r="L7" s="1"/>
@@ -1443,12 +1491,24 @@
       <c r="F8" s="2">
         <v>4523.75</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>199271.1875</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
+        <v>22618.75</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="2"/>
+        <v>221889.9375</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="3"/>
+        <v>73.574999999999989</v>
+      </c>
       <c r="K8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4523.75</v>
       </c>
       <c r="L8" s="1"/>
@@ -1473,12 +1533,24 @@
       <c r="F9" s="2">
         <v>3921</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>166779.73499999999</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>19605</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="2"/>
+        <v>186384.73499999999</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="3"/>
+        <v>71.302499999999995</v>
+      </c>
       <c r="K9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3921</v>
       </c>
       <c r="L9" s="1"/>
@@ -1504,12 +1576,24 @@
       <c r="F10" s="2">
         <v>4975.25</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>254521.35187499999</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>24876.25</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="2"/>
+        <v>279397.60187499999</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="3"/>
+        <v>84.236249999999998</v>
+      </c>
       <c r="K10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4975.25</v>
       </c>
       <c r="L10" s="1"/>
@@ -1534,12 +1618,24 @@
       <c r="F11" s="2">
         <v>4602</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>709893.01500000001</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>23010</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="2"/>
+        <v>732903.01500000001</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="3"/>
+        <v>238.88624999999999</v>
+      </c>
       <c r="K11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4602</v>
       </c>
       <c r="L11" s="1"/>
@@ -1564,12 +1660,24 @@
       <c r="F12" s="2">
         <v>4767</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>779046.97500000009</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>23835</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="2"/>
+        <v>802881.97500000009</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="3"/>
+        <v>252.63750000000002</v>
+      </c>
       <c r="K12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4767</v>
       </c>
       <c r="L12" s="1"/>
@@ -1594,12 +1702,24 @@
       <c r="F13" s="2">
         <v>4921.5</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>909296.34</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="1"/>
+        <v>24607.5</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="2"/>
+        <v>933903.84</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="3"/>
+        <v>284.64</v>
+      </c>
       <c r="K13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4921.5</v>
       </c>
       <c r="L13" s="1"/>
@@ -1624,12 +1744,24 @@
       <c r="F14" s="2">
         <v>4186.5</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>432413.11874999997</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="1"/>
+        <v>20932.5</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="2"/>
+        <v>453345.61874999997</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="3"/>
+        <v>162.43124999999998</v>
+      </c>
       <c r="K14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4186.5</v>
       </c>
       <c r="L14" s="1"/>
@@ -1654,12 +1786,24 @@
       <c r="F15" s="2">
         <v>4174.25</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>507912.30437500001</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="1"/>
+        <v>20871.25</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="2"/>
+        <v>528783.55437500007</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="3"/>
+        <v>190.01624999999999</v>
+      </c>
       <c r="K15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4174.25</v>
       </c>
       <c r="L15" s="1"/>
@@ -1684,12 +1828,24 @@
       <c r="F16" s="2">
         <v>4573.75</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="G16" s="7">
+        <f t="shared" si="0"/>
+        <v>472411.203125</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="1"/>
+        <v>22868.75</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="2"/>
+        <v>495279.953125</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="3"/>
+        <v>162.43124999999998</v>
+      </c>
       <c r="K16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4573.75</v>
       </c>
       <c r="L16" s="1"/>
@@ -1714,12 +1870,24 @@
       <c r="F17" s="2">
         <v>4411.25</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>536749.87187499995</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="1"/>
+        <v>22056.25</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="2"/>
+        <v>558806.12187499995</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="3"/>
+        <v>190.01624999999999</v>
+      </c>
       <c r="K17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4411.25</v>
       </c>
       <c r="L17" s="1"/>
@@ -1744,12 +1912,24 @@
       <c r="F18" s="2">
         <v>4250.25</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
+        <v>2016839.255625</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="1"/>
+        <v>21251.25</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="2"/>
+        <v>2038090.505625</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="3"/>
+        <v>719.28374999999994</v>
+      </c>
       <c r="K18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4250.25</v>
       </c>
       <c r="L18" s="1"/>
@@ -1774,12 +1954,24 @@
       <c r="F19" s="2">
         <v>4522.25</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>2145909.3756249999</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>22611.25</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="2"/>
+        <v>2168520.6256249999</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="3"/>
+        <v>719.28374999999994</v>
+      </c>
       <c r="K19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4522.25</v>
       </c>
       <c r="L19" s="1"/>
@@ -1804,12 +1996,24 @@
       <c r="F20" s="2">
         <v>4188.25</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>1987418.860625</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>20941.25</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="2"/>
+        <v>2008360.110625</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="3"/>
+        <v>719.28374999999994</v>
+      </c>
       <c r="K20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4188.25</v>
       </c>
       <c r="L20" s="1"/>
@@ -1834,12 +2038,24 @@
       <c r="F21" s="2">
         <v>3981.75</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>1889429.964375</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>19908.75</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="2"/>
+        <v>1909338.714375</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="3"/>
+        <v>719.28374999999994</v>
+      </c>
       <c r="K21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3981.75</v>
       </c>
       <c r="L21" s="1"/>
@@ -1864,12 +2080,24 @@
       <c r="F22" s="2">
         <v>4690</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
+        <v>1296562.2249999999</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>23450</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="2"/>
+        <v>1320012.2249999999</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="3"/>
+        <v>422.17874999999998</v>
+      </c>
       <c r="K22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4690</v>
       </c>
       <c r="L22" s="1"/>
@@ -1895,12 +2123,24 @@
       <c r="F23" s="2">
         <v>3997.75</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>1251275.76125</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>19988.75</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="2"/>
+        <v>1271264.51125</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="3"/>
+        <v>476.99250000000001</v>
+      </c>
       <c r="K23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3997.75</v>
       </c>
       <c r="L23" s="1"/>
@@ -1925,12 +2165,24 @@
       <c r="F24" s="2">
         <v>4428.75</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="G24" s="7">
+        <f t="shared" si="0"/>
+        <v>1462240.3875000002</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>22143.75</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="2"/>
+        <v>1484384.1375000002</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="3"/>
+        <v>502.755</v>
+      </c>
       <c r="K24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4428.75</v>
       </c>
       <c r="L24" s="1"/>
@@ -1955,12 +2207,24 @@
       <c r="F25" s="2">
         <v>3995.5</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>1319194.2350000001</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>19977.5</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="2"/>
+        <v>1339171.7350000001</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="3"/>
+        <v>502.755</v>
+      </c>
       <c r="K25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3995.5</v>
       </c>
       <c r="L25" s="1"/>
@@ -1985,12 +2249,24 @@
       <c r="F26" s="2">
         <v>4210.75</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="G26" s="7">
+        <f t="shared" si="0"/>
+        <v>195610.39124999999</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>21053.75</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="2"/>
+        <v>216664.14124999999</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="3"/>
+        <v>77.182500000000005</v>
+      </c>
       <c r="K26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4210.75</v>
       </c>
       <c r="L26" s="1"/>
@@ -2015,12 +2291,24 @@
       <c r="F27" s="2">
         <v>4178</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="G27" s="7">
+        <f t="shared" si="0"/>
+        <v>28170.164999999997</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>20890</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="2"/>
+        <v>49060.164999999994</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="3"/>
+        <v>17.61375</v>
+      </c>
       <c r="K27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4178</v>
       </c>
       <c r="L27" s="1"/>
@@ -2045,12 +2333,24 @@
       <c r="F28" s="2">
         <v>3779</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="G28" s="7">
+        <f t="shared" si="0"/>
+        <v>87682.247499999998</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>18895</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="2"/>
+        <v>106577.2475</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="3"/>
+        <v>42.303750000000001</v>
+      </c>
       <c r="K28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3779</v>
       </c>
       <c r="L28" s="1"/>
@@ -2075,12 +2375,24 @@
       <c r="F29" s="2">
         <v>4019.25</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>133941.50625000001</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>20096.25</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="2"/>
+        <v>154037.75625000001</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="3"/>
+        <v>57.487500000000004</v>
+      </c>
       <c r="K29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4019.25</v>
       </c>
       <c r="L29" s="1"/>
@@ -2105,12 +2417,24 @@
       <c r="F30" s="2">
         <v>4449.75</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="G30" s="7">
+        <f t="shared" si="0"/>
+        <v>43340.565000000002</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="1"/>
+        <v>22248.75</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="2"/>
+        <v>65589.315000000002</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="3"/>
+        <v>22.11</v>
+      </c>
       <c r="K30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4449.75</v>
       </c>
       <c r="L30" s="1"/>
@@ -2135,12 +2459,24 @@
       <c r="F31" s="2">
         <v>4888.25</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="G31" s="7">
+        <f t="shared" si="0"/>
+        <v>128072.15</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>24441.25</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="2"/>
+        <v>152513.4</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="3"/>
+        <v>46.8</v>
+      </c>
       <c r="K31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4888.25</v>
       </c>
       <c r="L31" s="1"/>
@@ -2165,12 +2501,24 @@
       <c r="F32" s="2">
         <v>3775.25</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="G32" s="7">
+        <f t="shared" si="0"/>
+        <v>137117.07999999999</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>18876.25</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="2"/>
+        <v>155993.32999999999</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="3"/>
+        <v>61.980000000000004</v>
+      </c>
       <c r="K32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3775.25</v>
       </c>
       <c r="L32" s="1"/>
@@ -2195,12 +2543,24 @@
       <c r="F33" s="2">
         <v>4887</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
+      <c r="G33" s="7">
+        <f t="shared" si="0"/>
+        <v>61063.064999999995</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="1"/>
+        <v>24435</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="2"/>
+        <v>85498.065000000002</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="3"/>
+        <v>26.242499999999996</v>
+      </c>
       <c r="K33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4887</v>
       </c>
       <c r="L33" s="1"/>
@@ -2225,12 +2585,24 @@
       <c r="F34" s="2">
         <v>4725.25</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>219511.48874999999</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="1"/>
+        <v>23626.25</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="2"/>
+        <v>243137.73874999999</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="3"/>
+        <v>77.182500000000005</v>
+      </c>
       <c r="K34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4725.25</v>
       </c>
       <c r="L34" s="1"/>
@@ -2255,12 +2627,24 @@
       <c r="F35" s="2">
         <v>4326.25</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="G35" s="7">
+        <f t="shared" si="0"/>
+        <v>200975.94375000001</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="1"/>
+        <v>21631.25</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="2"/>
+        <v>222607.19375000001</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="3"/>
+        <v>77.182500000000005</v>
+      </c>
       <c r="K35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4326.25</v>
       </c>
       <c r="L35" s="1"/>
@@ -2285,12 +2669,24 @@
       <c r="F36" s="2">
         <v>3953.5</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="G36" s="7">
+        <f t="shared" si="0"/>
+        <v>183659.8425</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="1"/>
+        <v>19767.5</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="2"/>
+        <v>203427.3425</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="3"/>
+        <v>77.182500000000005</v>
+      </c>
       <c r="K36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3953.5</v>
       </c>
       <c r="L36" s="1"/>
@@ -2315,12 +2711,24 @@
       <c r="F37" s="2">
         <v>4226.5</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
+      <c r="G37" s="7">
+        <f t="shared" si="0"/>
+        <v>763157.97250000003</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="1"/>
+        <v>21132.5</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="2"/>
+        <v>784290.47250000003</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="3"/>
+        <v>278.34749999999997</v>
+      </c>
       <c r="K37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4226.5</v>
       </c>
       <c r="L37" s="1"/>
@@ -2345,12 +2753,24 @@
       <c r="F38" s="2">
         <v>4217.25</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
+      <c r="G38" s="7">
+        <f t="shared" si="0"/>
+        <v>915807.46687500004</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="1"/>
+        <v>21086.25</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="2"/>
+        <v>936893.71687500004</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="3"/>
+        <v>333.23624999999998</v>
+      </c>
       <c r="K38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4217.25</v>
       </c>
       <c r="L38" s="1"/>
@@ -2375,12 +2795,24 @@
       <c r="F39" s="2">
         <v>4117.75</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="G39" s="7">
+        <f t="shared" si="0"/>
+        <v>894200.29562500003</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="1"/>
+        <v>20588.75</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="2"/>
+        <v>914789.04562500003</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="3"/>
+        <v>333.23624999999998</v>
+      </c>
       <c r="K39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4117.75</v>
       </c>
       <c r="L39" s="1"/>
@@ -2405,12 +2837,24 @@
       <c r="F40" s="2">
         <v>3940.5</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="G40" s="7">
+        <f t="shared" si="0"/>
+        <v>711516.38249999995</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="1"/>
+        <v>19702.5</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="2"/>
+        <v>731218.88249999995</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="3"/>
+        <v>278.34749999999997</v>
+      </c>
       <c r="K40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3940.5</v>
       </c>
       <c r="L40" s="1"/>
@@ -2435,12 +2879,24 @@
       <c r="F41" s="2">
         <v>3801</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
+      <c r="G41" s="7">
+        <f t="shared" si="0"/>
+        <v>686327.56499999994</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="1"/>
+        <v>19005</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="2"/>
+        <v>705332.56499999994</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="3"/>
+        <v>278.34749999999997</v>
+      </c>
       <c r="K41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3801</v>
       </c>
       <c r="L41" s="1"/>
@@ -2465,12 +2921,24 @@
       <c r="F42" s="2">
         <v>3766.25</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+      <c r="G42" s="7">
+        <f t="shared" si="0"/>
+        <v>23303.671875</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="1"/>
+        <v>18831.25</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="2"/>
+        <v>42134.921875</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="3"/>
+        <v>16.78125</v>
+      </c>
       <c r="K42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3766.25</v>
       </c>
       <c r="L42" s="1"/>
@@ -2495,12 +2963,24 @@
       <c r="F43" s="2">
         <v>4846.5</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="G43" s="7">
+        <f t="shared" si="0"/>
+        <v>29987.71875</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="1"/>
+        <v>24232.5</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="2"/>
+        <v>54220.21875</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="3"/>
+        <v>16.78125</v>
+      </c>
       <c r="K43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4846.5</v>
       </c>
       <c r="L43" s="1"/>
@@ -2525,12 +3005,24 @@
       <c r="F44" s="2">
         <v>4564.75</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="G44" s="7">
+        <f t="shared" si="0"/>
+        <v>28244.390625</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="1"/>
+        <v>22823.75</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="2"/>
+        <v>51068.140625</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="3"/>
+        <v>16.78125</v>
+      </c>
       <c r="K44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4564.75</v>
       </c>
       <c r="L44" s="1"/>
@@ -2555,12 +3047,24 @@
       <c r="F45" s="2">
         <v>4899.75</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="G45" s="7">
+        <f t="shared" si="0"/>
+        <v>30317.203125</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="1"/>
+        <v>24498.75</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="2"/>
+        <v>54815.953125</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="3"/>
+        <v>16.78125</v>
+      </c>
       <c r="K45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4899.75</v>
       </c>
       <c r="L45" s="1"/>
@@ -2585,12 +3089,24 @@
       <c r="F46" s="2">
         <v>4096.25</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="G46" s="7">
+        <f t="shared" si="0"/>
+        <v>31674.253124999999</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="1"/>
+        <v>20481.25</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" si="2"/>
+        <v>52155.503125000003</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="3"/>
+        <v>19.098749999999999</v>
+      </c>
       <c r="K46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4096.25</v>
       </c>
       <c r="L46" s="1"/>
@@ -2615,12 +3131,24 @@
       <c r="F47" s="2">
         <v>4189.5</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="G47" s="7">
+        <f t="shared" si="0"/>
+        <v>32395.30875</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
+        <v>20947.5</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="2"/>
+        <v>53342.808749999997</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="3"/>
+        <v>19.098749999999999</v>
+      </c>
       <c r="K47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4189.5</v>
       </c>
       <c r="L47" s="1"/>
@@ -2645,12 +3173,24 @@
       <c r="F48" s="2">
         <v>4517.75</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="G48" s="7">
+        <f t="shared" si="0"/>
+        <v>34933.501875000002</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="1"/>
+        <v>22588.75</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="2"/>
+        <v>57522.251875000002</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="3"/>
+        <v>19.098749999999999</v>
+      </c>
       <c r="K48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4517.75</v>
       </c>
       <c r="L48" s="1"/>
@@ -2675,12 +3215,24 @@
       <c r="F49" s="2">
         <v>4585</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
+      <c r="G49" s="7">
+        <f t="shared" si="0"/>
+        <v>11130.087500000001</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="1"/>
+        <v>22925</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" si="2"/>
+        <v>34055.087500000001</v>
+      </c>
+      <c r="J49" s="7">
+        <f t="shared" si="3"/>
+        <v>11.141249999999999</v>
+      </c>
       <c r="K49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4585</v>
       </c>
       <c r="L49" s="1"/>
@@ -2705,12 +3257,24 @@
       <c r="F50" s="2">
         <v>3779.25</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="G50" s="7">
+        <f t="shared" si="0"/>
+        <v>8654.4825000000001</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="1"/>
+        <v>18896.25</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" si="2"/>
+        <v>27550.732499999998</v>
+      </c>
+      <c r="J50" s="7">
+        <f t="shared" si="3"/>
+        <v>10.935</v>
+      </c>
       <c r="K50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3779.25</v>
       </c>
       <c r="L50" s="1"/>
@@ -2735,12 +3299,24 @@
       <c r="F51" s="2">
         <v>4572.25</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="G51" s="7">
+        <f t="shared" si="0"/>
+        <v>11099.136875</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="1"/>
+        <v>22861.25</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="2"/>
+        <v>33960.386874999997</v>
+      </c>
+      <c r="J51" s="7">
+        <f t="shared" si="3"/>
+        <v>11.141249999999999</v>
+      </c>
       <c r="K51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4572.25</v>
       </c>
       <c r="L51" s="1"/>
@@ -2765,12 +3341,24 @@
       <c r="F52" s="2">
         <v>4206.75</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="G52" s="7">
+        <f t="shared" si="0"/>
+        <v>9633.4575000000004</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="1"/>
+        <v>21033.75</v>
+      </c>
+      <c r="I52" s="7">
+        <f t="shared" si="2"/>
+        <v>30667.2075</v>
+      </c>
+      <c r="J52" s="7">
+        <f t="shared" si="3"/>
+        <v>10.935</v>
+      </c>
       <c r="K52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4206.75</v>
       </c>
       <c r="L52" s="1"/>
@@ -2795,12 +3383,24 @@
       <c r="F53" s="2">
         <v>4657.75</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
+      <c r="G53" s="7">
+        <f t="shared" si="0"/>
+        <v>11306.688125000001</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="1"/>
+        <v>23288.75</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" si="2"/>
+        <v>34595.438125000001</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" si="3"/>
+        <v>11.141249999999999</v>
+      </c>
       <c r="K53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4657.75</v>
       </c>
       <c r="L53" s="1"/>
@@ -2825,12 +3425,24 @@
       <c r="F54" s="2">
         <v>4590.25</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
+      <c r="G54" s="7">
+        <f t="shared" si="0"/>
+        <v>10511.672500000001</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="1"/>
+        <v>22951.25</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="2"/>
+        <v>33462.922500000001</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" si="3"/>
+        <v>10.935</v>
+      </c>
       <c r="K54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4590.25</v>
       </c>
       <c r="L54" s="1"/>
@@ -2855,12 +3467,24 @@
       <c r="F55" s="2">
         <v>4896.75</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
+      <c r="G55" s="7">
+        <f t="shared" si="0"/>
+        <v>19183.018124999999</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" si="1"/>
+        <v>24483.75</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="2"/>
+        <v>43666.768125000002</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="3"/>
+        <v>13.376250000000001</v>
+      </c>
       <c r="K55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4896.75</v>
       </c>
       <c r="L55" s="1"/>
@@ -2885,12 +3509,24 @@
       <c r="F56" s="2">
         <v>4746.25</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
+      <c r="G56" s="7">
+        <f t="shared" si="0"/>
+        <v>18593.434375000001</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="1"/>
+        <v>23731.25</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" si="2"/>
+        <v>42324.684374999997</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" si="3"/>
+        <v>13.376250000000001</v>
+      </c>
       <c r="K56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4746.25</v>
       </c>
       <c r="L56" s="1"/>
@@ -2915,12 +3551,24 @@
       <c r="F57" s="2">
         <v>4312.5</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="G57" s="7">
+        <f t="shared" si="0"/>
+        <v>16894.21875</v>
+      </c>
+      <c r="H57" s="7">
+        <f t="shared" si="1"/>
+        <v>21562.5</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" si="2"/>
+        <v>38456.71875</v>
+      </c>
+      <c r="J57" s="7">
+        <f t="shared" si="3"/>
+        <v>13.376250000000001</v>
+      </c>
       <c r="K57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4312.5</v>
       </c>
       <c r="L57" s="1"/>
@@ -2945,12 +3593,24 @@
       <c r="F58" s="2">
         <v>4481</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
+      <c r="G58" s="7">
+        <f t="shared" si="0"/>
+        <v>29328.145</v>
+      </c>
+      <c r="H58" s="7">
+        <f t="shared" si="1"/>
+        <v>22405</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" si="2"/>
+        <v>51733.145000000004</v>
+      </c>
+      <c r="J58" s="7">
+        <f t="shared" si="3"/>
+        <v>17.317499999999999</v>
+      </c>
       <c r="K58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4481</v>
       </c>
       <c r="L58" s="1"/>
@@ -2975,12 +3635,24 @@
       <c r="F59" s="2">
         <v>3828.5</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="G59" s="7">
+        <f t="shared" si="0"/>
+        <v>25057.532500000001</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" si="1"/>
+        <v>19142.5</v>
+      </c>
+      <c r="I59" s="7">
+        <f t="shared" si="2"/>
+        <v>44200.032500000001</v>
+      </c>
+      <c r="J59" s="7">
+        <f t="shared" si="3"/>
+        <v>17.317499999999999</v>
+      </c>
       <c r="K59" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3828.5</v>
       </c>
       <c r="L59" s="1"/>
@@ -3005,12 +3677,24 @@
       <c r="F60" s="2">
         <v>4142.75</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+      <c r="G60" s="7">
+        <f t="shared" si="0"/>
+        <v>27114.298749999998</v>
+      </c>
+      <c r="H60" s="7">
+        <f t="shared" si="1"/>
+        <v>20713.75</v>
+      </c>
+      <c r="I60" s="7">
+        <f t="shared" si="2"/>
+        <v>47828.048750000002</v>
+      </c>
+      <c r="J60" s="7">
+        <f t="shared" si="3"/>
+        <v>17.317499999999999</v>
+      </c>
       <c r="K60" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4142.75</v>
       </c>
       <c r="L60" s="1"/>
@@ -3035,12 +3719,24 @@
       <c r="F61" s="2">
         <v>4552.25</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
+      <c r="G61" s="7">
+        <f t="shared" si="0"/>
+        <v>88677.83</v>
+      </c>
+      <c r="H61" s="7">
+        <f t="shared" si="1"/>
+        <v>22761.25</v>
+      </c>
+      <c r="I61" s="7">
+        <f t="shared" si="2"/>
+        <v>111439.08</v>
+      </c>
+      <c r="J61" s="7">
+        <f t="shared" si="3"/>
+        <v>36.72</v>
+      </c>
       <c r="K61" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4552.25</v>
       </c>
       <c r="L61" s="1"/>
@@ -3065,12 +3761,24 @@
       <c r="F62" s="2">
         <v>4809.25</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
+      <c r="G62" s="7">
+        <f t="shared" si="0"/>
+        <v>136919.3475</v>
+      </c>
+      <c r="H62" s="7">
+        <f t="shared" si="1"/>
+        <v>24046.25</v>
+      </c>
+      <c r="I62" s="7">
+        <f t="shared" si="2"/>
+        <v>160965.5975</v>
+      </c>
+      <c r="J62" s="7">
+        <f t="shared" si="3"/>
+        <v>50.204999999999998</v>
+      </c>
       <c r="K62" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4809.25</v>
       </c>
       <c r="L62" s="1"/>
@@ -3095,12 +3803,24 @@
       <c r="F63" s="2">
         <v>4199.5</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
+      <c r="G63" s="7">
+        <f t="shared" si="0"/>
+        <v>188788.52249999999</v>
+      </c>
+      <c r="H63" s="7">
+        <f t="shared" si="1"/>
+        <v>20997.5</v>
+      </c>
+      <c r="I63" s="7">
+        <f t="shared" si="2"/>
+        <v>209786.02249999999</v>
+      </c>
+      <c r="J63" s="7">
+        <f t="shared" si="3"/>
+        <v>74.932500000000005</v>
+      </c>
       <c r="K63" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4199.5</v>
       </c>
       <c r="L63" s="1"/>
@@ -3125,12 +3845,24 @@
       <c r="F64" s="2">
         <v>3987.25</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
+      <c r="G64" s="7">
+        <f t="shared" si="0"/>
+        <v>342554.61562499998</v>
+      </c>
+      <c r="H64" s="7">
+        <f t="shared" si="1"/>
+        <v>19936.25</v>
+      </c>
+      <c r="I64" s="7">
+        <f t="shared" si="2"/>
+        <v>362490.86562499998</v>
+      </c>
+      <c r="J64" s="7">
+        <f t="shared" si="3"/>
+        <v>136.36874999999998</v>
+      </c>
       <c r="K64" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3987.25</v>
       </c>
       <c r="L64" s="1"/>
@@ -3155,12 +3887,24 @@
       <c r="F65" s="2">
         <v>4553.25</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
+      <c r="G65" s="7">
+        <f t="shared" si="0"/>
+        <v>335324.09625</v>
+      </c>
+      <c r="H65" s="7">
+        <f t="shared" si="1"/>
+        <v>22766.25</v>
+      </c>
+      <c r="I65" s="7">
+        <f t="shared" si="2"/>
+        <v>358090.34625</v>
+      </c>
+      <c r="J65" s="7">
+        <f t="shared" si="3"/>
+        <v>117.9675</v>
+      </c>
       <c r="K65" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4553.25</v>
       </c>
       <c r="L65" s="1"/>
@@ -3185,12 +3929,24 @@
       <c r="F66" s="2">
         <v>4154</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="G66" s="7">
+        <f t="shared" si="0"/>
+        <v>356880.52499999997</v>
+      </c>
+      <c r="H66" s="7">
+        <f t="shared" si="1"/>
+        <v>20770</v>
+      </c>
+      <c r="I66" s="7">
+        <f t="shared" si="2"/>
+        <v>377650.52499999997</v>
+      </c>
+      <c r="J66" s="7">
+        <f t="shared" si="3"/>
+        <v>136.36874999999998</v>
+      </c>
       <c r="K66" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4154</v>
       </c>
       <c r="L66" s="1"/>
@@ -3215,12 +3971,24 @@
       <c r="F67" s="2">
         <v>4309.75</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
+      <c r="G67" s="7">
+        <f t="shared" si="0"/>
+        <v>370261.39687499998</v>
+      </c>
+      <c r="H67" s="7">
+        <f t="shared" si="1"/>
+        <v>21548.75</v>
+      </c>
+      <c r="I67" s="7">
+        <f t="shared" si="2"/>
+        <v>391810.14687499998</v>
+      </c>
+      <c r="J67" s="7">
+        <f t="shared" si="3"/>
+        <v>136.36874999999998</v>
+      </c>
       <c r="K67" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4309.75</v>
       </c>
       <c r="L67" s="1"/>
@@ -3245,12 +4013,24 @@
       <c r="F68" s="2">
         <v>4467.75</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
+      <c r="G68" s="7">
+        <f t="shared" si="0"/>
+        <v>383835.57187499997</v>
+      </c>
+      <c r="H68" s="7">
+        <f t="shared" si="1"/>
+        <v>22338.75</v>
+      </c>
+      <c r="I68" s="7">
+        <f t="shared" si="2"/>
+        <v>406174.32187499997</v>
+      </c>
+      <c r="J68" s="7">
+        <f t="shared" si="3"/>
+        <v>136.36874999999998</v>
+      </c>
       <c r="K68" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4467.75</v>
       </c>
       <c r="L68" s="1"/>
@@ -3275,12 +4055,24 @@
       <c r="F69" s="2">
         <v>3935.5</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="G69" s="7">
+        <f t="shared" ref="G69:G132" si="5">E69*F69</f>
+        <v>854623.34124999994</v>
+      </c>
+      <c r="H69" s="7">
+        <f t="shared" ref="H69:H132" si="6">F69*$P$1</f>
+        <v>19677.5</v>
+      </c>
+      <c r="I69" s="7">
+        <f t="shared" ref="I69:I132" si="7">G69+H69</f>
+        <v>874300.84124999994</v>
+      </c>
+      <c r="J69" s="7">
+        <f t="shared" ref="J69:J132" si="8">(E69+$P$1)*150%</f>
+        <v>333.23624999999998</v>
+      </c>
       <c r="K69" s="3">
-        <f t="shared" ref="K69:K132" si="1">F69</f>
+        <f t="shared" ref="K69:K132" si="9">F69</f>
         <v>3935.5</v>
       </c>
       <c r="L69" s="1"/>
@@ -3305,12 +4097,24 @@
       <c r="F70" s="2">
         <v>4949</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
+      <c r="G70" s="7">
+        <f t="shared" si="5"/>
+        <v>14884.117499999998</v>
+      </c>
+      <c r="H70" s="7">
+        <f t="shared" si="6"/>
+        <v>24745</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" si="7"/>
+        <v>39629.1175</v>
+      </c>
+      <c r="J70" s="7">
+        <f t="shared" si="8"/>
+        <v>12.01125</v>
+      </c>
       <c r="K70" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4949</v>
       </c>
       <c r="L70" s="1"/>
@@ -3335,12 +4139,24 @@
       <c r="F71" s="2">
         <v>4394.25</v>
       </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
+      <c r="G71" s="7">
+        <f t="shared" si="5"/>
+        <v>13215.706875</v>
+      </c>
+      <c r="H71" s="7">
+        <f t="shared" si="6"/>
+        <v>21971.25</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" si="7"/>
+        <v>35186.956875000003</v>
+      </c>
+      <c r="J71" s="7">
+        <f t="shared" si="8"/>
+        <v>12.01125</v>
+      </c>
       <c r="K71" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4394.25</v>
       </c>
       <c r="L71" s="1"/>
@@ -3365,12 +4181,24 @@
       <c r="F72" s="2">
         <v>3811.75</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
+      <c r="G72" s="7">
+        <f t="shared" si="5"/>
+        <v>3239.9874999999997</v>
+      </c>
+      <c r="H72" s="7">
+        <f t="shared" si="6"/>
+        <v>19058.75</v>
+      </c>
+      <c r="I72" s="7">
+        <f t="shared" si="7"/>
+        <v>22298.737499999999</v>
+      </c>
+      <c r="J72" s="7">
+        <f t="shared" si="8"/>
+        <v>8.7749999999999986</v>
+      </c>
       <c r="K72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3811.75</v>
       </c>
       <c r="L72" s="1"/>
@@ -3395,12 +4223,24 @@
       <c r="F73" s="2">
         <v>4125.25</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
+      <c r="G73" s="7">
+        <f t="shared" si="5"/>
+        <v>3506.4625000000001</v>
+      </c>
+      <c r="H73" s="7">
+        <f t="shared" si="6"/>
+        <v>20626.25</v>
+      </c>
+      <c r="I73" s="7">
+        <f t="shared" si="7"/>
+        <v>24132.712500000001</v>
+      </c>
+      <c r="J73" s="7">
+        <f t="shared" si="8"/>
+        <v>8.7749999999999986</v>
+      </c>
       <c r="K73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4125.25</v>
       </c>
       <c r="L73" s="1"/>
@@ -3425,12 +4265,24 @@
       <c r="F74" s="2">
         <v>4326.75</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
+      <c r="G74" s="7">
+        <f t="shared" si="5"/>
+        <v>15013.8225</v>
+      </c>
+      <c r="H74" s="7">
+        <f t="shared" si="6"/>
+        <v>21633.75</v>
+      </c>
+      <c r="I74" s="7">
+        <f t="shared" si="7"/>
+        <v>36647.572500000002</v>
+      </c>
+      <c r="J74" s="7">
+        <f t="shared" si="8"/>
+        <v>12.705000000000002</v>
+      </c>
       <c r="K74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4326.75</v>
       </c>
       <c r="L74" s="1"/>
@@ -3455,12 +4307,24 @@
       <c r="F75" s="2">
         <v>4072.25</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
+      <c r="G75" s="7">
+        <f t="shared" si="5"/>
+        <v>5813.1368750000001</v>
+      </c>
+      <c r="H75" s="7">
+        <f t="shared" si="6"/>
+        <v>20361.25</v>
+      </c>
+      <c r="I75" s="7">
+        <f t="shared" si="7"/>
+        <v>26174.386875</v>
+      </c>
+      <c r="J75" s="7">
+        <f t="shared" si="8"/>
+        <v>9.6412499999999994</v>
+      </c>
       <c r="K75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4072.25</v>
       </c>
       <c r="L75" s="1"/>
@@ -3485,12 +4349,24 @@
       <c r="F76" s="2">
         <v>4452</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="G76" s="7">
+        <f t="shared" si="5"/>
+        <v>35304.36</v>
+      </c>
+      <c r="H76" s="7">
+        <f t="shared" si="6"/>
+        <v>22260</v>
+      </c>
+      <c r="I76" s="7">
+        <f t="shared" si="7"/>
+        <v>57564.36</v>
+      </c>
+      <c r="J76" s="7">
+        <f t="shared" si="8"/>
+        <v>19.395</v>
+      </c>
       <c r="K76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4452</v>
       </c>
       <c r="L76" s="1"/>
@@ -3515,12 +4391,24 @@
       <c r="F77" s="2">
         <v>4171</v>
       </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
+      <c r="G77" s="7">
+        <f t="shared" si="5"/>
+        <v>33076.03</v>
+      </c>
+      <c r="H77" s="7">
+        <f t="shared" si="6"/>
+        <v>20855</v>
+      </c>
+      <c r="I77" s="7">
+        <f t="shared" si="7"/>
+        <v>53931.03</v>
+      </c>
+      <c r="J77" s="7">
+        <f t="shared" si="8"/>
+        <v>19.395</v>
+      </c>
       <c r="K77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4171</v>
       </c>
       <c r="L77" s="1"/>
@@ -3545,12 +4433,24 @@
       <c r="F78" s="2">
         <v>4753.75</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
+      <c r="G78" s="7">
+        <f t="shared" si="5"/>
+        <v>37697.237499999996</v>
+      </c>
+      <c r="H78" s="7">
+        <f t="shared" si="6"/>
+        <v>23768.75</v>
+      </c>
+      <c r="I78" s="7">
+        <f t="shared" si="7"/>
+        <v>61465.987499999996</v>
+      </c>
+      <c r="J78" s="7">
+        <f t="shared" si="8"/>
+        <v>19.395</v>
+      </c>
       <c r="K78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4753.75</v>
       </c>
       <c r="L78" s="1"/>
@@ -3575,12 +4475,24 @@
       <c r="F79" s="2">
         <v>3819.5</v>
       </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
+      <c r="G79" s="7">
+        <f t="shared" si="5"/>
+        <v>30288.634999999998</v>
+      </c>
+      <c r="H79" s="7">
+        <f t="shared" si="6"/>
+        <v>19097.5</v>
+      </c>
+      <c r="I79" s="7">
+        <f t="shared" si="7"/>
+        <v>49386.134999999995</v>
+      </c>
+      <c r="J79" s="7">
+        <f t="shared" si="8"/>
+        <v>19.395</v>
+      </c>
       <c r="K79" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3819.5</v>
       </c>
       <c r="L79" s="1"/>
@@ -3605,12 +4517,24 @@
       <c r="F80" s="2">
         <v>4528</v>
       </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
+      <c r="G80" s="7">
+        <f t="shared" si="5"/>
+        <v>706186.88</v>
+      </c>
+      <c r="H80" s="7">
+        <f t="shared" si="6"/>
+        <v>22640</v>
+      </c>
+      <c r="I80" s="7">
+        <f t="shared" si="7"/>
+        <v>728826.88</v>
+      </c>
+      <c r="J80" s="7">
+        <f t="shared" si="8"/>
+        <v>241.44</v>
+      </c>
       <c r="K80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4528</v>
       </c>
       <c r="L80" s="1"/>
@@ -3635,12 +4559,24 @@
       <c r="F81" s="2">
         <v>3996.25</v>
       </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
+      <c r="G81" s="7">
+        <f t="shared" si="5"/>
+        <v>706147.36562499998</v>
+      </c>
+      <c r="H81" s="7">
+        <f t="shared" si="6"/>
+        <v>19981.25</v>
+      </c>
+      <c r="I81" s="7">
+        <f t="shared" si="7"/>
+        <v>726128.61562499998</v>
+      </c>
+      <c r="J81" s="7">
+        <f t="shared" si="8"/>
+        <v>272.55374999999998</v>
+      </c>
       <c r="K81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3996.25</v>
       </c>
       <c r="L81" s="1"/>
@@ -3665,12 +4601,24 @@
       <c r="F82" s="2">
         <v>4064.25</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
+      <c r="G82" s="7">
+        <f t="shared" si="5"/>
+        <v>718163.135625</v>
+      </c>
+      <c r="H82" s="7">
+        <f t="shared" si="6"/>
+        <v>20321.25</v>
+      </c>
+      <c r="I82" s="7">
+        <f t="shared" si="7"/>
+        <v>738484.385625</v>
+      </c>
+      <c r="J82" s="7">
+        <f t="shared" si="8"/>
+        <v>272.55374999999998</v>
+      </c>
       <c r="K82" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4064.25</v>
       </c>
       <c r="L82" s="1"/>
@@ -3695,12 +4643,24 @@
       <c r="F83" s="2">
         <v>4599.5</v>
       </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
+      <c r="G83" s="7">
+        <f t="shared" si="5"/>
+        <v>717338.02</v>
+      </c>
+      <c r="H83" s="7">
+        <f t="shared" si="6"/>
+        <v>22997.5</v>
+      </c>
+      <c r="I83" s="7">
+        <f t="shared" si="7"/>
+        <v>740335.52</v>
+      </c>
+      <c r="J83" s="7">
+        <f t="shared" si="8"/>
+        <v>241.44</v>
+      </c>
       <c r="K83" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4599.5</v>
       </c>
       <c r="L83" s="1"/>
@@ -3725,12 +4685,24 @@
       <c r="F84" s="2">
         <v>4392.25</v>
       </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
+      <c r="G84" s="7">
+        <f t="shared" si="5"/>
+        <v>685015.31</v>
+      </c>
+      <c r="H84" s="7">
+        <f t="shared" si="6"/>
+        <v>21961.25</v>
+      </c>
+      <c r="I84" s="7">
+        <f t="shared" si="7"/>
+        <v>706976.56</v>
+      </c>
+      <c r="J84" s="7">
+        <f t="shared" si="8"/>
+        <v>241.44</v>
+      </c>
       <c r="K84" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4392.25</v>
       </c>
       <c r="L84" s="1"/>
@@ -3755,12 +4727,24 @@
       <c r="F85" s="2">
         <v>3811.25</v>
       </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
+      <c r="G85" s="7">
+        <f t="shared" si="5"/>
+        <v>2068832.253125</v>
+      </c>
+      <c r="H85" s="7">
+        <f t="shared" si="6"/>
+        <v>19056.25</v>
+      </c>
+      <c r="I85" s="7">
+        <f t="shared" si="7"/>
+        <v>2087888.503125</v>
+      </c>
+      <c r="J85" s="7">
+        <f t="shared" si="8"/>
+        <v>821.73374999999999</v>
+      </c>
       <c r="K85" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3811.25</v>
       </c>
       <c r="L85" s="1"/>
@@ -3785,12 +4769,24 @@
       <c r="F86" s="2">
         <v>4471</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
+      <c r="G86" s="7">
+        <f t="shared" si="5"/>
+        <v>2426959.3975</v>
+      </c>
+      <c r="H86" s="7">
+        <f t="shared" si="6"/>
+        <v>22355</v>
+      </c>
+      <c r="I86" s="7">
+        <f t="shared" si="7"/>
+        <v>2449314.3975</v>
+      </c>
+      <c r="J86" s="7">
+        <f t="shared" si="8"/>
+        <v>821.73374999999999</v>
+      </c>
       <c r="K86" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4471</v>
       </c>
       <c r="L86" s="1"/>
@@ -3815,12 +4811,24 @@
       <c r="F87" s="2">
         <v>4793.75</v>
       </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
+      <c r="G87" s="7">
+        <f t="shared" si="5"/>
+        <v>2602155.359375</v>
+      </c>
+      <c r="H87" s="7">
+        <f t="shared" si="6"/>
+        <v>23968.75</v>
+      </c>
+      <c r="I87" s="7">
+        <f t="shared" si="7"/>
+        <v>2626124.109375</v>
+      </c>
+      <c r="J87" s="7">
+        <f t="shared" si="8"/>
+        <v>821.73374999999999</v>
+      </c>
       <c r="K87" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4793.75</v>
       </c>
       <c r="L87" s="1"/>
@@ -3845,12 +4853,24 @@
       <c r="F88" s="2">
         <v>3850.25</v>
       </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
+      <c r="G88" s="7">
+        <f t="shared" si="5"/>
+        <v>1840563.8843750001</v>
+      </c>
+      <c r="H88" s="7">
+        <f t="shared" si="6"/>
+        <v>19251.25</v>
+      </c>
+      <c r="I88" s="7">
+        <f t="shared" si="7"/>
+        <v>1859815.1343750001</v>
+      </c>
+      <c r="J88" s="7">
+        <f t="shared" si="8"/>
+        <v>724.55625000000009</v>
+      </c>
       <c r="K88" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3850.25</v>
       </c>
       <c r="L88" s="1"/>
@@ -3875,12 +4895,24 @@
       <c r="F89" s="2">
         <v>4690.75</v>
       </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
+      <c r="G89" s="7">
+        <f t="shared" si="5"/>
+        <v>2242354.4031250002</v>
+      </c>
+      <c r="H89" s="7">
+        <f t="shared" si="6"/>
+        <v>23453.75</v>
+      </c>
+      <c r="I89" s="7">
+        <f t="shared" si="7"/>
+        <v>2265808.1531250002</v>
+      </c>
+      <c r="J89" s="7">
+        <f t="shared" si="8"/>
+        <v>724.55625000000009</v>
+      </c>
       <c r="K89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4690.75</v>
       </c>
       <c r="L89" s="1"/>
@@ -3905,12 +4937,24 @@
       <c r="F90" s="2">
         <v>4288.5</v>
       </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
+      <c r="G90" s="7">
+        <f t="shared" si="5"/>
+        <v>2050063.8187500001</v>
+      </c>
+      <c r="H90" s="7">
+        <f t="shared" si="6"/>
+        <v>21442.5</v>
+      </c>
+      <c r="I90" s="7">
+        <f t="shared" si="7"/>
+        <v>2071506.3187500001</v>
+      </c>
+      <c r="J90" s="7">
+        <f t="shared" si="8"/>
+        <v>724.55625000000009</v>
+      </c>
       <c r="K90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4288.5</v>
       </c>
       <c r="L90" s="1"/>
@@ -3935,12 +4979,24 @@
       <c r="F91" s="2">
         <v>4256.75</v>
       </c>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
+      <c r="G91" s="7">
+        <f t="shared" si="5"/>
+        <v>1616277.3331249999</v>
+      </c>
+      <c r="H91" s="7">
+        <f t="shared" si="6"/>
+        <v>21283.75</v>
+      </c>
+      <c r="I91" s="7">
+        <f t="shared" si="7"/>
+        <v>1637561.0831249999</v>
+      </c>
+      <c r="J91" s="7">
+        <f t="shared" si="8"/>
+        <v>577.04624999999999</v>
+      </c>
       <c r="K91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4256.75</v>
       </c>
       <c r="L91" s="1"/>
@@ -3965,12 +5021,24 @@
       <c r="F92" s="2">
         <v>3995</v>
       </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
+      <c r="G92" s="7">
+        <f t="shared" si="5"/>
+        <v>1516891.5125</v>
+      </c>
+      <c r="H92" s="7">
+        <f t="shared" si="6"/>
+        <v>19975</v>
+      </c>
+      <c r="I92" s="7">
+        <f t="shared" si="7"/>
+        <v>1536866.5125</v>
+      </c>
+      <c r="J92" s="7">
+        <f t="shared" si="8"/>
+        <v>577.04624999999999</v>
+      </c>
       <c r="K92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3995</v>
       </c>
       <c r="L92" s="1"/>
@@ -3995,12 +5063,24 @@
       <c r="F93" s="2">
         <v>4632.5</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
+      <c r="G93" s="7">
+        <f t="shared" si="5"/>
+        <v>1758948.66875</v>
+      </c>
+      <c r="H93" s="7">
+        <f t="shared" si="6"/>
+        <v>23162.5</v>
+      </c>
+      <c r="I93" s="7">
+        <f t="shared" si="7"/>
+        <v>1782111.16875</v>
+      </c>
+      <c r="J93" s="7">
+        <f t="shared" si="8"/>
+        <v>577.04624999999999</v>
+      </c>
       <c r="K93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4632.5</v>
       </c>
       <c r="L93" s="1"/>
@@ -4025,12 +5105,24 @@
       <c r="F94" s="2">
         <v>4917.5</v>
       </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
+      <c r="G94" s="7">
+        <f t="shared" si="5"/>
+        <v>744570.96875</v>
+      </c>
+      <c r="H94" s="7">
+        <f t="shared" si="6"/>
+        <v>24587.5</v>
+      </c>
+      <c r="I94" s="7">
+        <f t="shared" si="7"/>
+        <v>769158.46875</v>
+      </c>
+      <c r="J94" s="7">
+        <f t="shared" si="8"/>
+        <v>234.61874999999998</v>
+      </c>
       <c r="K94" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4917.5</v>
       </c>
       <c r="L94" s="1"/>
@@ -4055,12 +5147,24 @@
       <c r="F95" s="2">
         <v>4232.5</v>
       </c>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
+      <c r="G95" s="7">
+        <f t="shared" si="5"/>
+        <v>754527.77500000002</v>
+      </c>
+      <c r="H95" s="7">
+        <f t="shared" si="6"/>
+        <v>21162.5</v>
+      </c>
+      <c r="I95" s="7">
+        <f t="shared" si="7"/>
+        <v>775690.27500000002</v>
+      </c>
+      <c r="J95" s="7">
+        <f t="shared" si="8"/>
+        <v>274.90500000000003</v>
+      </c>
       <c r="K95" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4232.5</v>
       </c>
       <c r="L95" s="1"/>
@@ -4085,12 +5189,24 @@
       <c r="F96" s="2">
         <v>3892</v>
       </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
+      <c r="G96" s="7">
+        <f t="shared" si="5"/>
+        <v>589297.44999999995</v>
+      </c>
+      <c r="H96" s="7">
+        <f t="shared" si="6"/>
+        <v>19460</v>
+      </c>
+      <c r="I96" s="7">
+        <f t="shared" si="7"/>
+        <v>608757.44999999995</v>
+      </c>
+      <c r="J96" s="7">
+        <f t="shared" si="8"/>
+        <v>234.61874999999998</v>
+      </c>
       <c r="K96" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3892</v>
       </c>
       <c r="L96" s="1"/>
@@ -4115,12 +5231,24 @@
       <c r="F97" s="2">
         <v>3840</v>
       </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
+      <c r="G97" s="7">
+        <f t="shared" si="5"/>
+        <v>63177.600000000006</v>
+      </c>
+      <c r="H97" s="7">
+        <f t="shared" si="6"/>
+        <v>19200</v>
+      </c>
+      <c r="I97" s="7">
+        <f t="shared" si="7"/>
+        <v>82377.600000000006</v>
+      </c>
+      <c r="J97" s="7">
+        <f t="shared" si="8"/>
+        <v>32.178750000000001</v>
+      </c>
       <c r="K97" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3840</v>
       </c>
       <c r="L97" s="1"/>
@@ -4145,12 +5273,24 @@
       <c r="F98" s="2">
         <v>3881.75</v>
       </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
+      <c r="G98" s="7">
+        <f t="shared" si="5"/>
+        <v>75616.490000000005</v>
+      </c>
+      <c r="H98" s="7">
+        <f t="shared" si="6"/>
+        <v>19408.75</v>
+      </c>
+      <c r="I98" s="7">
+        <f t="shared" si="7"/>
+        <v>95025.24</v>
+      </c>
+      <c r="J98" s="7">
+        <f t="shared" si="8"/>
+        <v>36.72</v>
+      </c>
       <c r="K98" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3881.75</v>
       </c>
       <c r="L98" s="1"/>
@@ -4175,12 +5315,24 @@
       <c r="F99" s="2">
         <v>4603.75</v>
       </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
+      <c r="G99" s="7">
+        <f t="shared" si="5"/>
+        <v>117269.02187500001</v>
+      </c>
+      <c r="H99" s="7">
+        <f t="shared" si="6"/>
+        <v>23018.75</v>
+      </c>
+      <c r="I99" s="7">
+        <f t="shared" si="7"/>
+        <v>140287.77187500001</v>
+      </c>
+      <c r="J99" s="7">
+        <f t="shared" si="8"/>
+        <v>45.708750000000002</v>
+      </c>
       <c r="K99" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4603.75</v>
       </c>
       <c r="L99" s="1"/>
@@ -4205,12 +5357,24 @@
       <c r="F100" s="2">
         <v>3969.75</v>
       </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
+      <c r="G100" s="7">
+        <f t="shared" si="5"/>
+        <v>15065.20125</v>
+      </c>
+      <c r="H100" s="7">
+        <f t="shared" si="6"/>
+        <v>19848.75</v>
+      </c>
+      <c r="I100" s="7">
+        <f t="shared" si="7"/>
+        <v>34913.951249999998</v>
+      </c>
+      <c r="J100" s="7">
+        <f t="shared" si="8"/>
+        <v>13.192499999999999</v>
+      </c>
       <c r="K100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3969.75</v>
       </c>
       <c r="L100" s="1"/>
@@ -4235,12 +5399,24 @@
       <c r="F101" s="2">
         <v>4169.5</v>
       </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
+      <c r="G101" s="7">
+        <f t="shared" si="5"/>
+        <v>47344.672500000001</v>
+      </c>
+      <c r="H101" s="7">
+        <f t="shared" si="6"/>
+        <v>20847.5</v>
+      </c>
+      <c r="I101" s="7">
+        <f t="shared" si="7"/>
+        <v>68192.172500000001</v>
+      </c>
+      <c r="J101" s="7">
+        <f t="shared" si="8"/>
+        <v>24.532499999999999</v>
+      </c>
       <c r="K101" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4169.5</v>
       </c>
       <c r="L101" s="1"/>
@@ -4265,12 +5441,24 @@
       <c r="F102" s="2">
         <v>4679.5</v>
       </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
+      <c r="G102" s="7">
+        <f t="shared" si="5"/>
+        <v>64787.677500000005</v>
+      </c>
+      <c r="H102" s="7">
+        <f t="shared" si="6"/>
+        <v>23397.5</v>
+      </c>
+      <c r="I102" s="7">
+        <f t="shared" si="7"/>
+        <v>88185.177500000005</v>
+      </c>
+      <c r="J102" s="7">
+        <f t="shared" si="8"/>
+        <v>28.267499999999998</v>
+      </c>
       <c r="K102" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4679.5</v>
       </c>
       <c r="L102" s="1"/>
@@ -4295,12 +5483,24 @@
       <c r="F103" s="2">
         <v>3920.75</v>
       </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
+      <c r="G103" s="7">
+        <f t="shared" si="5"/>
+        <v>17623.771250000002</v>
+      </c>
+      <c r="H103" s="7">
+        <f t="shared" si="6"/>
+        <v>19603.75</v>
+      </c>
+      <c r="I103" s="7">
+        <f t="shared" si="7"/>
+        <v>37227.521250000005</v>
+      </c>
+      <c r="J103" s="7">
+        <f t="shared" si="8"/>
+        <v>14.242500000000001</v>
+      </c>
       <c r="K103" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3920.75</v>
       </c>
       <c r="L103" s="1"/>
@@ -4325,12 +5525,24 @@
       <c r="F104" s="2">
         <v>4634.25</v>
       </c>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
+      <c r="G104" s="7">
+        <f t="shared" si="5"/>
+        <v>22916.366250000003</v>
+      </c>
+      <c r="H104" s="7">
+        <f t="shared" si="6"/>
+        <v>23171.25</v>
+      </c>
+      <c r="I104" s="7">
+        <f t="shared" si="7"/>
+        <v>46087.616250000006</v>
+      </c>
+      <c r="J104" s="7">
+        <f t="shared" si="8"/>
+        <v>14.9175</v>
+      </c>
       <c r="K104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4634.25</v>
       </c>
       <c r="L104" s="1"/>
@@ -4355,12 +5567,24 @@
       <c r="F105" s="2">
         <v>4634.25</v>
       </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
+      <c r="G105" s="7">
+        <f t="shared" si="5"/>
+        <v>61867.237499999996</v>
+      </c>
+      <c r="H105" s="7">
+        <f t="shared" si="6"/>
+        <v>23171.25</v>
+      </c>
+      <c r="I105" s="7">
+        <f t="shared" si="7"/>
+        <v>85038.487499999988</v>
+      </c>
+      <c r="J105" s="7">
+        <f t="shared" si="8"/>
+        <v>27.525000000000002</v>
+      </c>
       <c r="K105" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4634.25</v>
       </c>
       <c r="L105" s="1"/>
@@ -4385,12 +5609,24 @@
       <c r="F106" s="2">
         <v>4039</v>
       </c>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
+      <c r="G106" s="7">
+        <f t="shared" si="5"/>
+        <v>18155.305</v>
+      </c>
+      <c r="H106" s="7">
+        <f t="shared" si="6"/>
+        <v>20195</v>
+      </c>
+      <c r="I106" s="7">
+        <f t="shared" si="7"/>
+        <v>38350.305</v>
+      </c>
+      <c r="J106" s="7">
+        <f t="shared" si="8"/>
+        <v>14.242500000000001</v>
+      </c>
       <c r="K106" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4039</v>
       </c>
       <c r="L106" s="1"/>
@@ -4415,12 +5651,24 @@
       <c r="F107" s="2">
         <v>4594.25</v>
       </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
+      <c r="G107" s="7">
+        <f t="shared" si="5"/>
+        <v>22718.56625</v>
+      </c>
+      <c r="H107" s="7">
+        <f t="shared" si="6"/>
+        <v>22971.25</v>
+      </c>
+      <c r="I107" s="7">
+        <f t="shared" si="7"/>
+        <v>45689.816250000003</v>
+      </c>
+      <c r="J107" s="7">
+        <f t="shared" si="8"/>
+        <v>14.9175</v>
+      </c>
       <c r="K107" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4594.25</v>
       </c>
       <c r="L107" s="1"/>
@@ -4445,12 +5693,24 @@
       <c r="F108" s="2">
         <v>4053.25</v>
       </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
+      <c r="G108" s="7">
+        <f t="shared" si="5"/>
+        <v>304115.34750000003</v>
+      </c>
+      <c r="H108" s="7">
+        <f t="shared" si="6"/>
+        <v>20266.25</v>
+      </c>
+      <c r="I108" s="7">
+        <f t="shared" si="7"/>
+        <v>324381.59750000003</v>
+      </c>
+      <c r="J108" s="7">
+        <f t="shared" si="8"/>
+        <v>120.045</v>
+      </c>
       <c r="K108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4053.25</v>
       </c>
       <c r="L108" s="1"/>
@@ -4475,12 +5735,24 @@
       <c r="F109" s="2">
         <v>3962</v>
       </c>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
+      <c r="G109" s="7">
+        <f t="shared" si="5"/>
+        <v>297268.86</v>
+      </c>
+      <c r="H109" s="7">
+        <f t="shared" si="6"/>
+        <v>19810</v>
+      </c>
+      <c r="I109" s="7">
+        <f t="shared" si="7"/>
+        <v>317078.86</v>
+      </c>
+      <c r="J109" s="7">
+        <f t="shared" si="8"/>
+        <v>120.045</v>
+      </c>
       <c r="K109" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3962</v>
       </c>
       <c r="L109" s="1"/>
@@ -4505,12 +5777,24 @@
       <c r="F110" s="2">
         <v>4528.5</v>
       </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
+      <c r="G110" s="7">
+        <f t="shared" si="5"/>
+        <v>58372.365000000005</v>
+      </c>
+      <c r="H110" s="7">
+        <f t="shared" si="6"/>
+        <v>22642.5</v>
+      </c>
+      <c r="I110" s="7">
+        <f t="shared" si="7"/>
+        <v>81014.865000000005</v>
+      </c>
+      <c r="J110" s="7">
+        <f t="shared" si="8"/>
+        <v>26.835000000000001</v>
+      </c>
       <c r="K110" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4528.5</v>
       </c>
       <c r="L110" s="1"/>
@@ -4535,12 +5819,24 @@
       <c r="F111" s="2">
         <v>4688.75</v>
       </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
+      <c r="G111" s="7">
+        <f t="shared" si="5"/>
+        <v>12085.253125000001</v>
+      </c>
+      <c r="H111" s="7">
+        <f t="shared" si="6"/>
+        <v>23443.75</v>
+      </c>
+      <c r="I111" s="7">
+        <f t="shared" si="7"/>
+        <v>35529.003125000003</v>
+      </c>
+      <c r="J111" s="7">
+        <f t="shared" si="8"/>
+        <v>11.366250000000001</v>
+      </c>
       <c r="K111" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4688.75</v>
       </c>
       <c r="L111" s="1"/>
@@ -4565,12 +5861,24 @@
       <c r="F112" s="2">
         <v>4327.25</v>
       </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
+      <c r="G112" s="7">
+        <f t="shared" si="5"/>
+        <v>8924.953125</v>
+      </c>
+      <c r="H112" s="7">
+        <f t="shared" si="6"/>
+        <v>21636.25</v>
+      </c>
+      <c r="I112" s="7">
+        <f t="shared" si="7"/>
+        <v>30561.203125</v>
+      </c>
+      <c r="J112" s="7">
+        <f t="shared" si="8"/>
+        <v>10.59375</v>
+      </c>
       <c r="K112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4327.25</v>
       </c>
       <c r="L112" s="1"/>
@@ -4595,12 +5903,24 @@
       <c r="F113" s="2">
         <v>3832</v>
       </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
+      <c r="G113" s="7">
+        <f t="shared" si="5"/>
+        <v>9876.9800000000014</v>
+      </c>
+      <c r="H113" s="7">
+        <f t="shared" si="6"/>
+        <v>19160</v>
+      </c>
+      <c r="I113" s="7">
+        <f t="shared" si="7"/>
+        <v>29036.980000000003</v>
+      </c>
+      <c r="J113" s="7">
+        <f t="shared" si="8"/>
+        <v>11.366250000000001</v>
+      </c>
       <c r="K113" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3832</v>
       </c>
       <c r="L113" s="1"/>
@@ -4625,12 +5945,24 @@
       <c r="F114" s="2">
         <v>4076.25</v>
       </c>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
+      <c r="G114" s="7">
+        <f t="shared" si="5"/>
+        <v>5879.9906249999995</v>
+      </c>
+      <c r="H114" s="7">
+        <f t="shared" si="6"/>
+        <v>20381.25</v>
+      </c>
+      <c r="I114" s="7">
+        <f t="shared" si="7"/>
+        <v>26261.240624999999</v>
+      </c>
+      <c r="J114" s="7">
+        <f t="shared" si="8"/>
+        <v>9.6637500000000003</v>
+      </c>
       <c r="K114" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4076.25</v>
       </c>
       <c r="L114" s="1"/>
@@ -4655,12 +5987,24 @@
       <c r="F115" s="2">
         <v>3838</v>
       </c>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
+      <c r="G115" s="7">
+        <f t="shared" si="5"/>
+        <v>13845.584999999999</v>
+      </c>
+      <c r="H115" s="7">
+        <f t="shared" si="6"/>
+        <v>19190</v>
+      </c>
+      <c r="I115" s="7">
+        <f t="shared" si="7"/>
+        <v>33035.584999999999</v>
+      </c>
+      <c r="J115" s="7">
+        <f t="shared" si="8"/>
+        <v>12.911249999999999</v>
+      </c>
       <c r="K115" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3838</v>
       </c>
       <c r="L115" s="1"/>
@@ -4685,12 +6029,24 @@
       <c r="F116" s="2">
         <v>4785</v>
       </c>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
+      <c r="G116" s="7">
+        <f t="shared" si="5"/>
+        <v>22202.399999999998</v>
+      </c>
+      <c r="H116" s="7">
+        <f t="shared" si="6"/>
+        <v>23925</v>
+      </c>
+      <c r="I116" s="7">
+        <f t="shared" si="7"/>
+        <v>46127.399999999994</v>
+      </c>
+      <c r="J116" s="7">
+        <f t="shared" si="8"/>
+        <v>14.46</v>
+      </c>
       <c r="K116" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4785</v>
       </c>
       <c r="L116" s="1"/>
@@ -4715,12 +6071,24 @@
       <c r="F117" s="2">
         <v>4902</v>
       </c>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
+      <c r="G117" s="7">
+        <f t="shared" si="5"/>
+        <v>45490.559999999998</v>
+      </c>
+      <c r="H117" s="7">
+        <f t="shared" si="6"/>
+        <v>24510</v>
+      </c>
+      <c r="I117" s="7">
+        <f t="shared" si="7"/>
+        <v>70000.56</v>
+      </c>
+      <c r="J117" s="7">
+        <f t="shared" si="8"/>
+        <v>21.419999999999998</v>
+      </c>
       <c r="K117" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4902</v>
       </c>
       <c r="L117" s="1"/>
@@ -4745,12 +6113,24 @@
       <c r="F118" s="2">
         <v>4316.5</v>
       </c>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
+      <c r="G118" s="7">
+        <f t="shared" si="5"/>
+        <v>40057.119999999995</v>
+      </c>
+      <c r="H118" s="7">
+        <f t="shared" si="6"/>
+        <v>21582.5</v>
+      </c>
+      <c r="I118" s="7">
+        <f t="shared" si="7"/>
+        <v>61639.619999999995</v>
+      </c>
+      <c r="J118" s="7">
+        <f t="shared" si="8"/>
+        <v>21.419999999999998</v>
+      </c>
       <c r="K118" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4316.5</v>
       </c>
       <c r="L118" s="1"/>
@@ -4775,12 +6155,24 @@
       <c r="F119" s="2">
         <v>4661.75</v>
       </c>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
+      <c r="G119" s="7">
+        <f t="shared" si="5"/>
+        <v>43261.039999999994</v>
+      </c>
+      <c r="H119" s="7">
+        <f t="shared" si="6"/>
+        <v>23308.75</v>
+      </c>
+      <c r="I119" s="7">
+        <f t="shared" si="7"/>
+        <v>66569.789999999994</v>
+      </c>
+      <c r="J119" s="7">
+        <f t="shared" si="8"/>
+        <v>21.419999999999998</v>
+      </c>
       <c r="K119" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4661.75</v>
       </c>
       <c r="L119" s="1"/>
@@ -4805,12 +6197,24 @@
       <c r="F120" s="2">
         <v>3794.25</v>
       </c>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
+      <c r="G120" s="7">
+        <f t="shared" si="5"/>
+        <v>22528.359375</v>
+      </c>
+      <c r="H120" s="7">
+        <f t="shared" si="6"/>
+        <v>18971.25</v>
+      </c>
+      <c r="I120" s="7">
+        <f t="shared" si="7"/>
+        <v>41499.609375</v>
+      </c>
+      <c r="J120" s="7">
+        <f t="shared" si="8"/>
+        <v>16.40625</v>
+      </c>
       <c r="K120" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3794.25</v>
       </c>
       <c r="L120" s="1"/>
@@ -4835,12 +6239,24 @@
       <c r="F121" s="2">
         <v>4813</v>
       </c>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
+      <c r="G121" s="7">
+        <f t="shared" si="5"/>
+        <v>28577.1875</v>
+      </c>
+      <c r="H121" s="7">
+        <f t="shared" si="6"/>
+        <v>24065</v>
+      </c>
+      <c r="I121" s="7">
+        <f t="shared" si="7"/>
+        <v>52642.1875</v>
+      </c>
+      <c r="J121" s="7">
+        <f t="shared" si="8"/>
+        <v>16.40625</v>
+      </c>
       <c r="K121" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4813</v>
       </c>
       <c r="L121" s="1"/>
@@ -4865,12 +6281,24 @@
       <c r="F122" s="2">
         <v>4655.75</v>
       </c>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
+      <c r="G122" s="7">
+        <f t="shared" si="5"/>
+        <v>27643.515625</v>
+      </c>
+      <c r="H122" s="7">
+        <f t="shared" si="6"/>
+        <v>23278.75</v>
+      </c>
+      <c r="I122" s="7">
+        <f t="shared" si="7"/>
+        <v>50922.265625</v>
+      </c>
+      <c r="J122" s="7">
+        <f t="shared" si="8"/>
+        <v>16.40625</v>
+      </c>
       <c r="K122" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4655.75</v>
       </c>
       <c r="L122" s="1"/>
@@ -4895,12 +6323,24 @@
       <c r="F123" s="2">
         <v>3845.5</v>
       </c>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
+      <c r="G123" s="7">
+        <f t="shared" si="5"/>
+        <v>1797.77125</v>
+      </c>
+      <c r="H123" s="7">
+        <f t="shared" si="6"/>
+        <v>19227.5</v>
+      </c>
+      <c r="I123" s="7">
+        <f t="shared" si="7"/>
+        <v>21025.271250000002</v>
+      </c>
+      <c r="J123" s="7">
+        <f t="shared" si="8"/>
+        <v>8.2012499999999999</v>
+      </c>
       <c r="K123" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3845.5</v>
       </c>
       <c r="L123" s="1"/>
@@ -4925,12 +6365,24 @@
       <c r="F124" s="2">
         <v>4382.75</v>
       </c>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
+      <c r="G124" s="7">
+        <f t="shared" si="5"/>
+        <v>4097.8712500000001</v>
+      </c>
+      <c r="H124" s="7">
+        <f t="shared" si="6"/>
+        <v>21913.75</v>
+      </c>
+      <c r="I124" s="7">
+        <f t="shared" si="7"/>
+        <v>26011.62125</v>
+      </c>
+      <c r="J124" s="7">
+        <f t="shared" si="8"/>
+        <v>8.9024999999999999</v>
+      </c>
       <c r="K124" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4382.75</v>
       </c>
       <c r="L124" s="1"/>
@@ -4955,12 +6407,24 @@
       <c r="F125" s="2">
         <v>3761.25</v>
       </c>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
+      <c r="G125" s="7">
+        <f t="shared" si="5"/>
+        <v>3159.45</v>
+      </c>
+      <c r="H125" s="7">
+        <f t="shared" si="6"/>
+        <v>18806.25</v>
+      </c>
+      <c r="I125" s="7">
+        <f t="shared" si="7"/>
+        <v>21965.7</v>
+      </c>
+      <c r="J125" s="7">
+        <f t="shared" si="8"/>
+        <v>8.76</v>
+      </c>
       <c r="K125" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3761.25</v>
       </c>
       <c r="L125" s="1"/>
@@ -4985,12 +6449,24 @@
       <c r="F126" s="2">
         <v>3963</v>
       </c>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
+      <c r="G126" s="7">
+        <f t="shared" si="5"/>
+        <v>852.04499999999996</v>
+      </c>
+      <c r="H126" s="7">
+        <f t="shared" si="6"/>
+        <v>19815</v>
+      </c>
+      <c r="I126" s="7">
+        <f t="shared" si="7"/>
+        <v>20667.044999999998</v>
+      </c>
+      <c r="J126" s="7">
+        <f t="shared" si="8"/>
+        <v>7.8224999999999998</v>
+      </c>
       <c r="K126" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3963</v>
       </c>
       <c r="L126" s="1"/>
@@ -5015,12 +6491,24 @@
       <c r="F127" s="2">
         <v>4890.25</v>
       </c>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
+      <c r="G127" s="7">
+        <f t="shared" si="5"/>
+        <v>4107.8099999999995</v>
+      </c>
+      <c r="H127" s="7">
+        <f t="shared" si="6"/>
+        <v>24451.25</v>
+      </c>
+      <c r="I127" s="7">
+        <f t="shared" si="7"/>
+        <v>28559.059999999998</v>
+      </c>
+      <c r="J127" s="7">
+        <f t="shared" si="8"/>
+        <v>8.76</v>
+      </c>
       <c r="K127" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4890.25</v>
       </c>
       <c r="L127" s="1"/>
@@ -5045,12 +6533,24 @@
       <c r="F128" s="2">
         <v>4731.25</v>
       </c>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
+      <c r="G128" s="7">
+        <f t="shared" si="5"/>
+        <v>3974.25</v>
+      </c>
+      <c r="H128" s="7">
+        <f t="shared" si="6"/>
+        <v>23656.25</v>
+      </c>
+      <c r="I128" s="7">
+        <f t="shared" si="7"/>
+        <v>27630.5</v>
+      </c>
+      <c r="J128" s="7">
+        <f t="shared" si="8"/>
+        <v>8.76</v>
+      </c>
       <c r="K128" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4731.25</v>
       </c>
       <c r="L128" s="1"/>
@@ -5075,12 +6575,24 @@
       <c r="F129" s="2">
         <v>4993.25</v>
       </c>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
+      <c r="G129" s="7">
+        <f t="shared" si="5"/>
+        <v>56024.265000000007</v>
+      </c>
+      <c r="H129" s="7">
+        <f t="shared" si="6"/>
+        <v>24966.25</v>
+      </c>
+      <c r="I129" s="7">
+        <f t="shared" si="7"/>
+        <v>80990.515000000014</v>
+      </c>
+      <c r="J129" s="7">
+        <f t="shared" si="8"/>
+        <v>24.33</v>
+      </c>
       <c r="K129" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4993.25</v>
       </c>
       <c r="L129" s="1"/>
@@ -5105,12 +6617,24 @@
       <c r="F130" s="2">
         <v>4539.75</v>
       </c>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
+      <c r="G130" s="7">
+        <f t="shared" si="5"/>
+        <v>3370.7643750000002</v>
+      </c>
+      <c r="H130" s="7">
+        <f t="shared" si="6"/>
+        <v>22698.75</v>
+      </c>
+      <c r="I130" s="7">
+        <f t="shared" si="7"/>
+        <v>26069.514374999999</v>
+      </c>
+      <c r="J130" s="7">
+        <f t="shared" si="8"/>
+        <v>8.6137499999999996</v>
+      </c>
       <c r="K130" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4539.75</v>
       </c>
       <c r="L130" s="1"/>
@@ -5135,12 +6659,24 @@
       <c r="F131" s="2">
         <v>3829</v>
       </c>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
+      <c r="G131" s="7">
+        <f t="shared" si="5"/>
+        <v>7868.5950000000003</v>
+      </c>
+      <c r="H131" s="7">
+        <f t="shared" si="6"/>
+        <v>19145</v>
+      </c>
+      <c r="I131" s="7">
+        <f t="shared" si="7"/>
+        <v>27013.595000000001</v>
+      </c>
+      <c r="J131" s="7">
+        <f t="shared" si="8"/>
+        <v>10.5825</v>
+      </c>
       <c r="K131" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3829</v>
       </c>
       <c r="L131" s="1"/>
@@ -5165,12 +6701,24 @@
       <c r="F132" s="2">
         <v>4127.75</v>
       </c>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
+      <c r="G132" s="7">
+        <f t="shared" si="5"/>
+        <v>61369.323124999995</v>
+      </c>
+      <c r="H132" s="7">
+        <f t="shared" si="6"/>
+        <v>20638.75</v>
+      </c>
+      <c r="I132" s="7">
+        <f t="shared" si="7"/>
+        <v>82008.073124999995</v>
+      </c>
+      <c r="J132" s="7">
+        <f t="shared" si="8"/>
+        <v>29.80125</v>
+      </c>
       <c r="K132" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4127.75</v>
       </c>
       <c r="L132" s="1"/>
@@ -5195,12 +6743,24 @@
       <c r="F133" s="2">
         <v>4839.25</v>
       </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
+      <c r="G133" s="7">
+        <f t="shared" ref="G133:G196" si="10">E133*F133</f>
+        <v>24885.843124999999</v>
+      </c>
+      <c r="H133" s="7">
+        <f t="shared" ref="H133:H196" si="11">F133*$P$1</f>
+        <v>24196.25</v>
+      </c>
+      <c r="I133" s="7">
+        <f t="shared" ref="I133:I196" si="12">G133+H133</f>
+        <v>49082.093124999999</v>
+      </c>
+      <c r="J133" s="7">
+        <f t="shared" ref="J133:J196" si="13">(E133+$P$1)*150%</f>
+        <v>15.213750000000001</v>
+      </c>
       <c r="K133" s="3">
-        <f t="shared" ref="K133:K196" si="2">F133</f>
+        <f t="shared" ref="K133:K196" si="14">F133</f>
         <v>4839.25</v>
       </c>
       <c r="L133" s="1"/>
@@ -5225,12 +6785,24 @@
       <c r="F134" s="2">
         <v>4554.5</v>
       </c>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
+      <c r="G134" s="7">
+        <f t="shared" si="10"/>
+        <v>47332.641250000001</v>
+      </c>
+      <c r="H134" s="7">
+        <f t="shared" si="11"/>
+        <v>22772.5</v>
+      </c>
+      <c r="I134" s="7">
+        <f t="shared" si="12"/>
+        <v>70105.141250000001</v>
+      </c>
+      <c r="J134" s="7">
+        <f t="shared" si="13"/>
+        <v>23.088750000000001</v>
+      </c>
       <c r="K134" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4554.5</v>
       </c>
       <c r="L134" s="1"/>
@@ -5255,12 +6827,24 @@
       <c r="F135" s="2">
         <v>4071</v>
       </c>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
+      <c r="G135" s="7">
+        <f t="shared" si="10"/>
+        <v>42307.8675</v>
+      </c>
+      <c r="H135" s="7">
+        <f t="shared" si="11"/>
+        <v>20355</v>
+      </c>
+      <c r="I135" s="7">
+        <f t="shared" si="12"/>
+        <v>62662.8675</v>
+      </c>
+      <c r="J135" s="7">
+        <f t="shared" si="13"/>
+        <v>23.088750000000001</v>
+      </c>
       <c r="K135" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4071</v>
       </c>
       <c r="L135" s="1"/>
@@ -5285,12 +6869,24 @@
       <c r="F136" s="2">
         <v>4083</v>
       </c>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
+      <c r="G136" s="7">
+        <f t="shared" si="10"/>
+        <v>42432.577499999999</v>
+      </c>
+      <c r="H136" s="7">
+        <f t="shared" si="11"/>
+        <v>20415</v>
+      </c>
+      <c r="I136" s="7">
+        <f t="shared" si="12"/>
+        <v>62847.577499999999</v>
+      </c>
+      <c r="J136" s="7">
+        <f t="shared" si="13"/>
+        <v>23.088750000000001</v>
+      </c>
       <c r="K136" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4083</v>
       </c>
       <c r="L136" s="1"/>
@@ -5315,12 +6911,24 @@
       <c r="F137" s="2">
         <v>3916.25</v>
       </c>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
+      <c r="G137" s="7">
+        <f t="shared" si="10"/>
+        <v>40699.628125000003</v>
+      </c>
+      <c r="H137" s="7">
+        <f t="shared" si="11"/>
+        <v>19581.25</v>
+      </c>
+      <c r="I137" s="7">
+        <f t="shared" si="12"/>
+        <v>60280.878125000003</v>
+      </c>
+      <c r="J137" s="7">
+        <f t="shared" si="13"/>
+        <v>23.088750000000001</v>
+      </c>
       <c r="K137" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3916.25</v>
       </c>
       <c r="L137" s="1"/>
@@ -5345,12 +6953,24 @@
       <c r="F138" s="2">
         <v>4224.25</v>
       </c>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
+      <c r="G138" s="7">
+        <f t="shared" si="10"/>
+        <v>635475.04874999996</v>
+      </c>
+      <c r="H138" s="7">
+        <f t="shared" si="11"/>
+        <v>21121.25</v>
+      </c>
+      <c r="I138" s="7">
+        <f t="shared" si="12"/>
+        <v>656596.29874999996</v>
+      </c>
+      <c r="J138" s="7">
+        <f t="shared" si="13"/>
+        <v>233.1525</v>
+      </c>
       <c r="K138" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4224.25</v>
       </c>
       <c r="L138" s="1"/>
@@ -5375,12 +6995,24 @@
       <c r="F139" s="2">
         <v>3925.25</v>
       </c>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
+      <c r="G139" s="7">
+        <f t="shared" si="10"/>
+        <v>196115.30312500001</v>
+      </c>
+      <c r="H139" s="7">
+        <f t="shared" si="11"/>
+        <v>19626.25</v>
+      </c>
+      <c r="I139" s="7">
+        <f t="shared" si="12"/>
+        <v>215741.55312500001</v>
+      </c>
+      <c r="J139" s="7">
+        <f t="shared" si="13"/>
+        <v>82.443749999999994</v>
+      </c>
       <c r="K139" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3925.25</v>
       </c>
       <c r="L139" s="1"/>
@@ -5405,12 +7037,24 @@
       <c r="F140" s="2">
         <v>4252.75</v>
       </c>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
+      <c r="G140" s="7">
+        <f t="shared" si="10"/>
+        <v>639762.44625000004</v>
+      </c>
+      <c r="H140" s="7">
+        <f t="shared" si="11"/>
+        <v>21263.75</v>
+      </c>
+      <c r="I140" s="7">
+        <f t="shared" si="12"/>
+        <v>661026.19625000004</v>
+      </c>
+      <c r="J140" s="7">
+        <f t="shared" si="13"/>
+        <v>233.1525</v>
+      </c>
       <c r="K140" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4252.75</v>
       </c>
       <c r="L140" s="1"/>
@@ -5435,12 +7079,24 @@
       <c r="F141" s="2">
         <v>4308.25</v>
       </c>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
+      <c r="G141" s="7">
+        <f t="shared" si="10"/>
+        <v>648111.58875</v>
+      </c>
+      <c r="H141" s="7">
+        <f t="shared" si="11"/>
+        <v>21541.25</v>
+      </c>
+      <c r="I141" s="7">
+        <f t="shared" si="12"/>
+        <v>669652.83875</v>
+      </c>
+      <c r="J141" s="7">
+        <f t="shared" si="13"/>
+        <v>233.1525</v>
+      </c>
       <c r="K141" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4308.25</v>
       </c>
       <c r="L141" s="1"/>
@@ -5465,12 +7121,24 @@
       <c r="F142" s="2">
         <v>3813</v>
       </c>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
+      <c r="G142" s="7">
+        <f t="shared" si="10"/>
+        <v>573608.65500000003</v>
+      </c>
+      <c r="H142" s="7">
+        <f t="shared" si="11"/>
+        <v>19065</v>
+      </c>
+      <c r="I142" s="7">
+        <f t="shared" si="12"/>
+        <v>592673.65500000003</v>
+      </c>
+      <c r="J142" s="7">
+        <f t="shared" si="13"/>
+        <v>233.1525</v>
+      </c>
       <c r="K142" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3813</v>
       </c>
       <c r="L142" s="1"/>
@@ -5495,12 +7163,24 @@
       <c r="F143" s="2">
         <v>4725.5</v>
       </c>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
+      <c r="G143" s="7">
+        <f t="shared" si="10"/>
+        <v>63711.553749999999</v>
+      </c>
+      <c r="H143" s="7">
+        <f t="shared" si="11"/>
+        <v>23627.5</v>
+      </c>
+      <c r="I143" s="7">
+        <f t="shared" si="12"/>
+        <v>87339.053749999992</v>
+      </c>
+      <c r="J143" s="7">
+        <f t="shared" si="13"/>
+        <v>27.723750000000003</v>
+      </c>
       <c r="K143" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4725.5</v>
       </c>
       <c r="L143" s="1"/>
@@ -5525,12 +7205,24 @@
       <c r="F144" s="2">
         <v>4888</v>
       </c>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
+      <c r="G144" s="7">
+        <f t="shared" si="10"/>
+        <v>244216.69999999998</v>
+      </c>
+      <c r="H144" s="7">
+        <f t="shared" si="11"/>
+        <v>24440</v>
+      </c>
+      <c r="I144" s="7">
+        <f t="shared" si="12"/>
+        <v>268656.69999999995</v>
+      </c>
+      <c r="J144" s="7">
+        <f t="shared" si="13"/>
+        <v>82.443749999999994</v>
+      </c>
       <c r="K144" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4888</v>
       </c>
       <c r="L144" s="1"/>
@@ -5555,12 +7247,24 @@
       <c r="F145" s="2">
         <v>4977.25</v>
       </c>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
+      <c r="G145" s="7">
+        <f t="shared" si="10"/>
+        <v>248091.02625</v>
+      </c>
+      <c r="H145" s="7">
+        <f t="shared" si="11"/>
+        <v>24886.25</v>
+      </c>
+      <c r="I145" s="7">
+        <f t="shared" si="12"/>
+        <v>272977.27625</v>
+      </c>
+      <c r="J145" s="7">
+        <f t="shared" si="13"/>
+        <v>82.267499999999998</v>
+      </c>
       <c r="K145" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4977.25</v>
       </c>
       <c r="L145" s="1"/>
@@ -5585,12 +7289,24 @@
       <c r="F146" s="2">
         <v>4607.5</v>
       </c>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
+      <c r="G146" s="7">
+        <f t="shared" si="10"/>
+        <v>229660.83749999999</v>
+      </c>
+      <c r="H146" s="7">
+        <f t="shared" si="11"/>
+        <v>23037.5</v>
+      </c>
+      <c r="I146" s="7">
+        <f t="shared" si="12"/>
+        <v>252698.33749999999</v>
+      </c>
+      <c r="J146" s="7">
+        <f t="shared" si="13"/>
+        <v>82.267499999999998</v>
+      </c>
       <c r="K146" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4607.5</v>
       </c>
       <c r="L146" s="1"/>
@@ -5615,12 +7331,24 @@
       <c r="F147" s="2">
         <v>4099.75</v>
       </c>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
+      <c r="G147" s="7">
+        <f t="shared" si="10"/>
+        <v>204352.03875000001</v>
+      </c>
+      <c r="H147" s="7">
+        <f t="shared" si="11"/>
+        <v>20498.75</v>
+      </c>
+      <c r="I147" s="7">
+        <f t="shared" si="12"/>
+        <v>224850.78875000001</v>
+      </c>
+      <c r="J147" s="7">
+        <f t="shared" si="13"/>
+        <v>82.267499999999998</v>
+      </c>
       <c r="K147" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4099.75</v>
       </c>
       <c r="L147" s="1"/>
@@ -5645,12 +7373,24 @@
       <c r="F148" s="2">
         <v>3897</v>
       </c>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
+      <c r="G148" s="7">
+        <f t="shared" si="10"/>
+        <v>46072.282500000001</v>
+      </c>
+      <c r="H148" s="7">
+        <f t="shared" si="11"/>
+        <v>19485</v>
+      </c>
+      <c r="I148" s="7">
+        <f t="shared" si="12"/>
+        <v>65557.282500000001</v>
+      </c>
+      <c r="J148" s="7">
+        <f t="shared" si="13"/>
+        <v>25.233749999999997</v>
+      </c>
       <c r="K148" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3897</v>
       </c>
       <c r="L148" s="1"/>
@@ -5675,12 +7415,24 @@
       <c r="F149" s="2">
         <v>4918.25</v>
       </c>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
+      <c r="G149" s="7">
+        <f t="shared" si="10"/>
+        <v>14803.932499999999</v>
+      </c>
+      <c r="H149" s="7">
+        <f t="shared" si="11"/>
+        <v>24591.25</v>
+      </c>
+      <c r="I149" s="7">
+        <f t="shared" si="12"/>
+        <v>39395.182499999995</v>
+      </c>
+      <c r="J149" s="7">
+        <f t="shared" si="13"/>
+        <v>12.015000000000001</v>
+      </c>
       <c r="K149" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4918.25</v>
       </c>
       <c r="L149" s="1"/>
@@ -5705,12 +7457,24 @@
       <c r="F150" s="2">
         <v>4110.25</v>
       </c>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
+      <c r="G150" s="7">
+        <f t="shared" si="10"/>
+        <v>17859.036249999997</v>
+      </c>
+      <c r="H150" s="7">
+        <f t="shared" si="11"/>
+        <v>20551.25</v>
+      </c>
+      <c r="I150" s="7">
+        <f t="shared" si="12"/>
+        <v>38410.286249999997</v>
+      </c>
+      <c r="J150" s="7">
+        <f t="shared" si="13"/>
+        <v>14.017499999999998</v>
+      </c>
       <c r="K150" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4110.25</v>
       </c>
       <c r="L150" s="1"/>
@@ -5735,12 +7499,24 @@
       <c r="F151" s="2">
         <v>3830.75</v>
       </c>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
+      <c r="G151" s="7">
+        <f t="shared" si="10"/>
+        <v>22381.156875000001</v>
+      </c>
+      <c r="H151" s="7">
+        <f t="shared" si="11"/>
+        <v>19153.75</v>
+      </c>
+      <c r="I151" s="7">
+        <f t="shared" si="12"/>
+        <v>41534.906875000001</v>
+      </c>
+      <c r="J151" s="7">
+        <f t="shared" si="13"/>
+        <v>16.263750000000002</v>
+      </c>
       <c r="K151" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3830.75</v>
       </c>
       <c r="L151" s="1"/>
@@ -5765,12 +7541,24 @@
       <c r="F152" s="2">
         <v>3934.75</v>
       </c>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
+      <c r="G152" s="7">
+        <f t="shared" si="10"/>
+        <v>11843.5975</v>
+      </c>
+      <c r="H152" s="7">
+        <f t="shared" si="11"/>
+        <v>19673.75</v>
+      </c>
+      <c r="I152" s="7">
+        <f t="shared" si="12"/>
+        <v>31517.3475</v>
+      </c>
+      <c r="J152" s="7">
+        <f t="shared" si="13"/>
+        <v>12.015000000000001</v>
+      </c>
       <c r="K152" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3934.75</v>
       </c>
       <c r="L152" s="1"/>
@@ -5795,12 +7583,24 @@
       <c r="F153" s="2">
         <v>4306</v>
       </c>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
+      <c r="G153" s="7">
+        <f t="shared" si="10"/>
+        <v>18709.57</v>
+      </c>
+      <c r="H153" s="7">
+        <f t="shared" si="11"/>
+        <v>21530</v>
+      </c>
+      <c r="I153" s="7">
+        <f t="shared" si="12"/>
+        <v>40239.57</v>
+      </c>
+      <c r="J153" s="7">
+        <f t="shared" si="13"/>
+        <v>14.017499999999998</v>
+      </c>
       <c r="K153" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4306</v>
       </c>
       <c r="L153" s="1"/>
@@ -5825,12 +7625,24 @@
       <c r="F154" s="2">
         <v>4266.5</v>
       </c>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
+      <c r="G154" s="7">
+        <f t="shared" si="10"/>
+        <v>24927.026250000003</v>
+      </c>
+      <c r="H154" s="7">
+        <f t="shared" si="11"/>
+        <v>21332.5</v>
+      </c>
+      <c r="I154" s="7">
+        <f t="shared" si="12"/>
+        <v>46259.526250000003</v>
+      </c>
+      <c r="J154" s="7">
+        <f t="shared" si="13"/>
+        <v>16.263750000000002</v>
+      </c>
       <c r="K154" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4266.5</v>
       </c>
       <c r="L154" s="1"/>
@@ -5855,12 +7667,24 @@
       <c r="F155" s="2">
         <v>4858</v>
       </c>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
+      <c r="G155" s="7">
+        <f t="shared" si="10"/>
+        <v>14622.579999999998</v>
+      </c>
+      <c r="H155" s="7">
+        <f t="shared" si="11"/>
+        <v>24290</v>
+      </c>
+      <c r="I155" s="7">
+        <f t="shared" si="12"/>
+        <v>38912.58</v>
+      </c>
+      <c r="J155" s="7">
+        <f t="shared" si="13"/>
+        <v>12.015000000000001</v>
+      </c>
       <c r="K155" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4858</v>
       </c>
       <c r="L155" s="1"/>
@@ -5885,12 +7709,24 @@
       <c r="F156" s="2">
         <v>4543.75</v>
       </c>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
+      <c r="G156" s="7">
+        <f t="shared" si="10"/>
+        <v>19742.59375</v>
+      </c>
+      <c r="H156" s="7">
+        <f t="shared" si="11"/>
+        <v>22718.75</v>
+      </c>
+      <c r="I156" s="7">
+        <f t="shared" si="12"/>
+        <v>42461.34375</v>
+      </c>
+      <c r="J156" s="7">
+        <f t="shared" si="13"/>
+        <v>14.017499999999998</v>
+      </c>
       <c r="K156" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4543.75</v>
       </c>
       <c r="L156" s="1"/>
@@ -5915,12 +7751,24 @@
       <c r="F157" s="2">
         <v>4152.5</v>
       </c>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
+      <c r="G157" s="7">
+        <f t="shared" si="10"/>
+        <v>24260.981250000001</v>
+      </c>
+      <c r="H157" s="7">
+        <f t="shared" si="11"/>
+        <v>20762.5</v>
+      </c>
+      <c r="I157" s="7">
+        <f t="shared" si="12"/>
+        <v>45023.481249999997</v>
+      </c>
+      <c r="J157" s="7">
+        <f t="shared" si="13"/>
+        <v>16.263750000000002</v>
+      </c>
       <c r="K157" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4152.5</v>
       </c>
       <c r="L157" s="1"/>
@@ -5945,12 +7793,24 @@
       <c r="F158" s="2">
         <v>4475.75</v>
       </c>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
+      <c r="G158" s="7">
+        <f t="shared" si="10"/>
+        <v>161787.173125</v>
+      </c>
+      <c r="H158" s="7">
+        <f t="shared" si="11"/>
+        <v>22378.75</v>
+      </c>
+      <c r="I158" s="7">
+        <f t="shared" si="12"/>
+        <v>184165.923125</v>
+      </c>
+      <c r="J158" s="7">
+        <f t="shared" si="13"/>
+        <v>61.721249999999998</v>
+      </c>
       <c r="K158" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4475.75</v>
       </c>
       <c r="L158" s="1"/>
@@ -5975,12 +7835,24 @@
       <c r="F159" s="2">
         <v>4877.5</v>
       </c>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
+      <c r="G159" s="7">
+        <f t="shared" si="10"/>
+        <v>176309.43124999999</v>
+      </c>
+      <c r="H159" s="7">
+        <f t="shared" si="11"/>
+        <v>24387.5</v>
+      </c>
+      <c r="I159" s="7">
+        <f t="shared" si="12"/>
+        <v>200696.93124999999</v>
+      </c>
+      <c r="J159" s="7">
+        <f t="shared" si="13"/>
+        <v>61.721249999999998</v>
+      </c>
       <c r="K159" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4877.5</v>
       </c>
       <c r="L159" s="1"/>
@@ -6005,12 +7877,24 @@
       <c r="F160" s="2">
         <v>4568.25</v>
       </c>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
-      <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
+      <c r="G160" s="7">
+        <f t="shared" si="10"/>
+        <v>165130.81687499999</v>
+      </c>
+      <c r="H160" s="7">
+        <f t="shared" si="11"/>
+        <v>22841.25</v>
+      </c>
+      <c r="I160" s="7">
+        <f t="shared" si="12"/>
+        <v>187972.06687499999</v>
+      </c>
+      <c r="J160" s="7">
+        <f t="shared" si="13"/>
+        <v>61.721249999999998</v>
+      </c>
       <c r="K160" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4568.25</v>
       </c>
       <c r="L160" s="1"/>
@@ -6035,12 +7919,24 @@
       <c r="F161" s="2">
         <v>3766.75</v>
       </c>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
+      <c r="G161" s="7">
+        <f t="shared" si="10"/>
+        <v>136158.59562500002</v>
+      </c>
+      <c r="H161" s="7">
+        <f t="shared" si="11"/>
+        <v>18833.75</v>
+      </c>
+      <c r="I161" s="7">
+        <f t="shared" si="12"/>
+        <v>154992.34562500002</v>
+      </c>
+      <c r="J161" s="7">
+        <f t="shared" si="13"/>
+        <v>61.721249999999998</v>
+      </c>
       <c r="K161" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3766.75</v>
       </c>
       <c r="L161" s="1"/>
@@ -6065,12 +7961,24 @@
       <c r="F162" s="2">
         <v>4745.25</v>
       </c>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
+      <c r="G162" s="7">
+        <f t="shared" si="10"/>
+        <v>2218.4043750000001</v>
+      </c>
+      <c r="H162" s="7">
+        <f t="shared" si="11"/>
+        <v>23726.25</v>
+      </c>
+      <c r="I162" s="7">
+        <f t="shared" si="12"/>
+        <v>25944.654374999998</v>
+      </c>
+      <c r="J162" s="7">
+        <f t="shared" si="13"/>
+        <v>8.2012499999999999</v>
+      </c>
       <c r="K162" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4745.25</v>
       </c>
       <c r="L162" s="1"/>
@@ -6095,12 +8003,24 @@
       <c r="F163" s="2">
         <v>4184.75</v>
       </c>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
+      <c r="G163" s="7">
+        <f t="shared" si="10"/>
+        <v>1558.819375</v>
+      </c>
+      <c r="H163" s="7">
+        <f t="shared" si="11"/>
+        <v>20923.75</v>
+      </c>
+      <c r="I163" s="7">
+        <f t="shared" si="12"/>
+        <v>22482.569374999999</v>
+      </c>
+      <c r="J163" s="7">
+        <f t="shared" si="13"/>
+        <v>8.0587499999999999</v>
+      </c>
       <c r="K163" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4184.75</v>
       </c>
       <c r="L163" s="1"/>
@@ -6125,12 +8045,24 @@
       <c r="F164" s="2">
         <v>3943.75</v>
       </c>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
+      <c r="G164" s="7">
+        <f t="shared" si="10"/>
+        <v>1843.703125</v>
+      </c>
+      <c r="H164" s="7">
+        <f t="shared" si="11"/>
+        <v>19718.75</v>
+      </c>
+      <c r="I164" s="7">
+        <f t="shared" si="12"/>
+        <v>21562.453125</v>
+      </c>
+      <c r="J164" s="7">
+        <f t="shared" si="13"/>
+        <v>8.2012499999999999</v>
+      </c>
       <c r="K164" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3943.75</v>
       </c>
       <c r="L164" s="1"/>
@@ -6155,12 +8087,24 @@
       <c r="F165" s="2">
         <v>4494</v>
       </c>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
+      <c r="G165" s="7">
+        <f t="shared" si="10"/>
+        <v>10504.725</v>
+      </c>
+      <c r="H165" s="7">
+        <f t="shared" si="11"/>
+        <v>22470</v>
+      </c>
+      <c r="I165" s="7">
+        <f t="shared" si="12"/>
+        <v>32974.724999999999</v>
+      </c>
+      <c r="J165" s="7">
+        <f t="shared" si="13"/>
+        <v>11.006250000000001</v>
+      </c>
       <c r="K165" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4494</v>
       </c>
       <c r="L165" s="1"/>
@@ -6185,12 +8129,24 @@
       <c r="F166" s="2">
         <v>3786.5</v>
       </c>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="7"/>
-      <c r="J166" s="7"/>
+      <c r="G166" s="7">
+        <f t="shared" si="10"/>
+        <v>10621.1325</v>
+      </c>
+      <c r="H166" s="7">
+        <f t="shared" si="11"/>
+        <v>18932.5</v>
+      </c>
+      <c r="I166" s="7">
+        <f t="shared" si="12"/>
+        <v>29553.6325</v>
+      </c>
+      <c r="J166" s="7">
+        <f t="shared" si="13"/>
+        <v>11.7075</v>
+      </c>
       <c r="K166" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3786.5</v>
       </c>
       <c r="L166" s="1"/>
@@ -6215,12 +8171,24 @@
       <c r="F167" s="2">
         <v>4230.75</v>
       </c>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
+      <c r="G167" s="7">
+        <f t="shared" si="10"/>
+        <v>13845.129375</v>
+      </c>
+      <c r="H167" s="7">
+        <f>F167*$P$1</f>
+        <v>21153.75</v>
+      </c>
+      <c r="I167" s="7">
+        <f t="shared" si="12"/>
+        <v>34998.879375000004</v>
+      </c>
+      <c r="J167" s="7">
+        <f t="shared" si="13"/>
+        <v>12.408750000000001</v>
+      </c>
       <c r="K167" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4230.75</v>
       </c>
       <c r="L167" s="1"/>
@@ -6245,12 +8213,24 @@
       <c r="F168" s="2">
         <v>4832.25</v>
       </c>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
+      <c r="G168" s="7">
+        <f t="shared" si="10"/>
+        <v>9712.8224999999984</v>
+      </c>
+      <c r="H168" s="7">
+        <f t="shared" si="11"/>
+        <v>24161.25</v>
+      </c>
+      <c r="I168" s="7">
+        <f t="shared" si="12"/>
+        <v>33874.072499999995</v>
+      </c>
+      <c r="J168" s="7">
+        <f t="shared" si="13"/>
+        <v>10.515000000000001</v>
+      </c>
       <c r="K168" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4832.25</v>
       </c>
       <c r="L168" s="1"/>
@@ -6275,12 +8255,24 @@
       <c r="F169" s="2">
         <v>4809.5</v>
       </c>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
+      <c r="G169" s="7">
+        <f t="shared" si="10"/>
+        <v>11242.206249999999</v>
+      </c>
+      <c r="H169" s="7">
+        <f t="shared" si="11"/>
+        <v>24047.5</v>
+      </c>
+      <c r="I169" s="7">
+        <f t="shared" si="12"/>
+        <v>35289.706250000003</v>
+      </c>
+      <c r="J169" s="7">
+        <f t="shared" si="13"/>
+        <v>11.006250000000001</v>
+      </c>
       <c r="K169" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4809.5</v>
       </c>
       <c r="L169" s="1"/>
@@ -6305,12 +8297,24 @@
       <c r="F170" s="2">
         <v>4893.25</v>
       </c>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
+      <c r="G170" s="7">
+        <f t="shared" si="10"/>
+        <v>14912.179375</v>
+      </c>
+      <c r="H170" s="7">
+        <f t="shared" si="11"/>
+        <v>24466.25</v>
+      </c>
+      <c r="I170" s="7">
+        <f t="shared" si="12"/>
+        <v>39378.429375</v>
+      </c>
+      <c r="J170" s="7">
+        <f t="shared" si="13"/>
+        <v>12.071249999999999</v>
+      </c>
       <c r="K170" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4893.25</v>
       </c>
       <c r="L170" s="1"/>
@@ -6335,12 +8339,24 @@
       <c r="F171" s="2">
         <v>3940.25</v>
       </c>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
+      <c r="G171" s="7">
+        <f t="shared" si="10"/>
+        <v>10678.077499999999</v>
+      </c>
+      <c r="H171" s="7">
+        <f t="shared" si="11"/>
+        <v>19701.25</v>
+      </c>
+      <c r="I171" s="7">
+        <f t="shared" si="12"/>
+        <v>30379.327499999999</v>
+      </c>
+      <c r="J171" s="7">
+        <f t="shared" si="13"/>
+        <v>11.565</v>
+      </c>
       <c r="K171" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3940.25</v>
       </c>
       <c r="L171" s="1"/>
@@ -6365,12 +8381,24 @@
       <c r="F172" s="2">
         <v>4901.5</v>
       </c>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
+      <c r="G172" s="7">
+        <f t="shared" si="10"/>
+        <v>22032.2425</v>
+      </c>
+      <c r="H172" s="7">
+        <f t="shared" si="11"/>
+        <v>24507.5</v>
+      </c>
+      <c r="I172" s="7">
+        <f t="shared" si="12"/>
+        <v>46539.7425</v>
+      </c>
+      <c r="J172" s="7">
+        <f t="shared" si="13"/>
+        <v>14.242500000000001</v>
+      </c>
       <c r="K172" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4901.5</v>
       </c>
       <c r="L172" s="1"/>
@@ -6395,12 +8423,24 @@
       <c r="F173" s="2">
         <v>4552.75</v>
       </c>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
+      <c r="G173" s="7">
+        <f t="shared" si="10"/>
+        <v>31379.829375000001</v>
+      </c>
+      <c r="H173" s="7">
+        <f t="shared" si="11"/>
+        <v>22763.75</v>
+      </c>
+      <c r="I173" s="7">
+        <f t="shared" si="12"/>
+        <v>54143.579375000001</v>
+      </c>
+      <c r="J173" s="7">
+        <f t="shared" si="13"/>
+        <v>17.838750000000001</v>
+      </c>
       <c r="K173" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4552.75</v>
       </c>
       <c r="L173" s="1"/>
@@ -6425,12 +8465,24 @@
       <c r="F174" s="2">
         <v>4139</v>
       </c>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
+      <c r="G174" s="7">
+        <f t="shared" si="10"/>
+        <v>37209.61</v>
+      </c>
+      <c r="H174" s="7">
+        <f t="shared" si="11"/>
+        <v>20695</v>
+      </c>
+      <c r="I174" s="7">
+        <f t="shared" si="12"/>
+        <v>57904.61</v>
+      </c>
+      <c r="J174" s="7">
+        <f t="shared" si="13"/>
+        <v>20.984999999999999</v>
+      </c>
       <c r="K174" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4139</v>
       </c>
       <c r="L174" s="1"/>
@@ -6455,12 +8507,24 @@
       <c r="F175" s="2">
         <v>4725</v>
       </c>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
+      <c r="G175" s="7">
+        <f t="shared" si="10"/>
+        <v>21238.875</v>
+      </c>
+      <c r="H175" s="7">
+        <f t="shared" si="11"/>
+        <v>23625</v>
+      </c>
+      <c r="I175" s="7">
+        <f t="shared" si="12"/>
+        <v>44863.875</v>
+      </c>
+      <c r="J175" s="7">
+        <f t="shared" si="13"/>
+        <v>14.242500000000001</v>
+      </c>
       <c r="K175" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4725</v>
       </c>
       <c r="L175" s="1"/>
@@ -6485,12 +8549,24 @@
       <c r="F176" s="2">
         <v>4308.25</v>
       </c>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
-      <c r="J176" s="7"/>
+      <c r="G176" s="7">
+        <f t="shared" si="10"/>
+        <v>29694.613125</v>
+      </c>
+      <c r="H176" s="7">
+        <f t="shared" si="11"/>
+        <v>21541.25</v>
+      </c>
+      <c r="I176" s="7">
+        <f t="shared" si="12"/>
+        <v>51235.863125000003</v>
+      </c>
+      <c r="J176" s="7">
+        <f t="shared" si="13"/>
+        <v>17.838750000000001</v>
+      </c>
       <c r="K176" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4308.25</v>
       </c>
       <c r="L176" s="1"/>
@@ -6515,12 +8591,24 @@
       <c r="F177" s="2">
         <v>4859.5</v>
       </c>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-      <c r="I177" s="7"/>
-      <c r="J177" s="7"/>
+      <c r="G177" s="7">
+        <f t="shared" si="10"/>
+        <v>43686.904999999999</v>
+      </c>
+      <c r="H177" s="7">
+        <f t="shared" si="11"/>
+        <v>24297.5</v>
+      </c>
+      <c r="I177" s="7">
+        <f t="shared" si="12"/>
+        <v>67984.404999999999</v>
+      </c>
+      <c r="J177" s="7">
+        <f t="shared" si="13"/>
+        <v>20.984999999999999</v>
+      </c>
       <c r="K177" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4859.5</v>
       </c>
       <c r="L177" s="1"/>
@@ -6545,12 +8633,24 @@
       <c r="F178" s="2">
         <v>4923.75</v>
       </c>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
-      <c r="I178" s="7"/>
-      <c r="J178" s="7"/>
+      <c r="G178" s="7">
+        <f t="shared" si="10"/>
+        <v>44264.512500000004</v>
+      </c>
+      <c r="H178" s="7">
+        <f t="shared" si="11"/>
+        <v>24618.75</v>
+      </c>
+      <c r="I178" s="7">
+        <f t="shared" si="12"/>
+        <v>68883.262500000012</v>
+      </c>
+      <c r="J178" s="7">
+        <f t="shared" si="13"/>
+        <v>20.984999999999999</v>
+      </c>
       <c r="K178" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4923.75</v>
       </c>
       <c r="L178" s="1"/>
@@ -6575,12 +8675,24 @@
       <c r="F179" s="2">
         <v>4740</v>
       </c>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
+      <c r="G179" s="7">
+        <f t="shared" si="10"/>
+        <v>236265.3</v>
+      </c>
+      <c r="H179" s="7">
+        <f t="shared" si="11"/>
+        <v>23700</v>
+      </c>
+      <c r="I179" s="7">
+        <f t="shared" si="12"/>
+        <v>259965.3</v>
+      </c>
+      <c r="J179" s="7">
+        <f t="shared" si="13"/>
+        <v>82.267499999999998</v>
+      </c>
       <c r="K179" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4740</v>
       </c>
       <c r="L179" s="1"/>
@@ -6605,12 +8717,24 @@
       <c r="F180" s="2">
         <v>4245.5</v>
       </c>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
+      <c r="G180" s="7">
+        <f t="shared" si="10"/>
+        <v>153464.21124999999</v>
+      </c>
+      <c r="H180" s="7">
+        <f t="shared" si="11"/>
+        <v>21227.5</v>
+      </c>
+      <c r="I180" s="7">
+        <f t="shared" si="12"/>
+        <v>174691.71124999999</v>
+      </c>
+      <c r="J180" s="7">
+        <f t="shared" si="13"/>
+        <v>61.721249999999998</v>
+      </c>
       <c r="K180" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4245.5</v>
       </c>
       <c r="L180" s="1"/>
@@ -6635,12 +8759,24 @@
       <c r="F181" s="2">
         <v>4428</v>
       </c>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
+      <c r="G181" s="7">
+        <f t="shared" si="10"/>
+        <v>44966.34</v>
+      </c>
+      <c r="H181" s="7">
+        <f t="shared" si="11"/>
+        <v>22140</v>
+      </c>
+      <c r="I181" s="7">
+        <f t="shared" si="12"/>
+        <v>67106.34</v>
+      </c>
+      <c r="J181" s="7">
+        <f t="shared" si="13"/>
+        <v>22.732499999999998</v>
+      </c>
       <c r="K181" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4428</v>
       </c>
       <c r="L181" s="1"/>
@@ -6665,12 +8801,24 @@
       <c r="F182" s="2">
         <v>4288</v>
       </c>
-      <c r="G182" s="7"/>
-      <c r="H182" s="7"/>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
+      <c r="G182" s="7">
+        <f t="shared" si="10"/>
+        <v>21933.120000000003</v>
+      </c>
+      <c r="H182" s="7">
+        <f t="shared" si="11"/>
+        <v>21440</v>
+      </c>
+      <c r="I182" s="7">
+        <f t="shared" si="12"/>
+        <v>43373.120000000003</v>
+      </c>
+      <c r="J182" s="7">
+        <f t="shared" si="13"/>
+        <v>15.172499999999999</v>
+      </c>
       <c r="K182" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4288</v>
       </c>
       <c r="L182" s="1"/>
@@ -6695,12 +8843,24 @@
       <c r="F183" s="2">
         <v>4811.25</v>
       </c>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
+      <c r="G183" s="7">
+        <f t="shared" si="10"/>
+        <v>48906.356249999997</v>
+      </c>
+      <c r="H183" s="7">
+        <f t="shared" si="11"/>
+        <v>24056.25</v>
+      </c>
+      <c r="I183" s="7">
+        <f t="shared" si="12"/>
+        <v>72962.606249999997</v>
+      </c>
+      <c r="J183" s="7">
+        <f t="shared" si="13"/>
+        <v>22.747499999999999</v>
+      </c>
       <c r="K183" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4811.25</v>
       </c>
       <c r="L183" s="1"/>
@@ -6725,12 +8885,24 @@
       <c r="F184" s="2">
         <v>4399</v>
       </c>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
+      <c r="G184" s="7">
+        <f t="shared" si="10"/>
+        <v>52007.177499999998</v>
+      </c>
+      <c r="H184" s="7">
+        <f t="shared" si="11"/>
+        <v>21995</v>
+      </c>
+      <c r="I184" s="7">
+        <f t="shared" si="12"/>
+        <v>74002.177499999991</v>
+      </c>
+      <c r="J184" s="7">
+        <f t="shared" si="13"/>
+        <v>25.233749999999997</v>
+      </c>
       <c r="K184" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4399</v>
       </c>
       <c r="L184" s="1"/>
@@ -6755,12 +8927,24 @@
       <c r="F185" s="2">
         <v>4513.75</v>
       </c>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
+      <c r="G185" s="7">
+        <f t="shared" si="10"/>
+        <v>10144.653125000001</v>
+      </c>
+      <c r="H185" s="7">
+        <f t="shared" si="11"/>
+        <v>22568.75</v>
+      </c>
+      <c r="I185" s="7">
+        <f t="shared" si="12"/>
+        <v>32713.403125000001</v>
+      </c>
+      <c r="J185" s="7">
+        <f t="shared" si="13"/>
+        <v>10.87125</v>
+      </c>
       <c r="K185" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4513.75</v>
       </c>
       <c r="L185" s="1"/>
@@ -6785,12 +8969,24 @@
       <c r="F186" s="2">
         <v>4363.25</v>
       </c>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
+      <c r="G186" s="7">
+        <f t="shared" si="10"/>
+        <v>823727.05937499995</v>
+      </c>
+      <c r="H186" s="7">
+        <f t="shared" si="11"/>
+        <v>21816.25</v>
+      </c>
+      <c r="I186" s="7">
+        <f t="shared" si="12"/>
+        <v>845543.30937499995</v>
+      </c>
+      <c r="J186" s="7">
+        <f t="shared" si="13"/>
+        <v>290.68124999999998</v>
+      </c>
       <c r="K186" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4363.25</v>
       </c>
       <c r="L186" s="1"/>
@@ -6815,12 +9011,24 @@
       <c r="F187" s="2">
         <v>4388.75</v>
       </c>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
-      <c r="I187" s="7"/>
-      <c r="J187" s="7"/>
+      <c r="G187" s="7">
+        <f t="shared" si="10"/>
+        <v>1625966.04375</v>
+      </c>
+      <c r="H187" s="7">
+        <f t="shared" si="11"/>
+        <v>21943.75</v>
+      </c>
+      <c r="I187" s="7">
+        <f t="shared" si="12"/>
+        <v>1647909.79375</v>
+      </c>
+      <c r="J187" s="7">
+        <f t="shared" si="13"/>
+        <v>563.22749999999996</v>
+      </c>
       <c r="K187" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4388.75</v>
       </c>
       <c r="L187" s="1"/>
@@ -6845,12 +9053,24 @@
       <c r="F188" s="2">
         <v>4916.75</v>
       </c>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
+      <c r="G188" s="7">
+        <f t="shared" si="10"/>
+        <v>1821582.12375</v>
+      </c>
+      <c r="H188" s="7">
+        <f t="shared" si="11"/>
+        <v>24583.75</v>
+      </c>
+      <c r="I188" s="7">
+        <f t="shared" si="12"/>
+        <v>1846165.87375</v>
+      </c>
+      <c r="J188" s="7">
+        <f t="shared" si="13"/>
+        <v>563.22749999999996</v>
+      </c>
       <c r="K188" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4916.75</v>
       </c>
       <c r="L188" s="1"/>
@@ -6875,12 +9095,24 @@
       <c r="F189" s="2">
         <v>4647.25</v>
       </c>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
+      <c r="G189" s="7">
+        <f t="shared" si="10"/>
+        <v>1721736.41625</v>
+      </c>
+      <c r="H189" s="7">
+        <f t="shared" si="11"/>
+        <v>23236.25</v>
+      </c>
+      <c r="I189" s="7">
+        <f t="shared" si="12"/>
+        <v>1744972.66625</v>
+      </c>
+      <c r="J189" s="7">
+        <f t="shared" si="13"/>
+        <v>563.22749999999996</v>
+      </c>
       <c r="K189" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4647.25</v>
       </c>
       <c r="L189" s="1"/>
@@ -6905,12 +9137,24 @@
       <c r="F190" s="2">
         <v>4568.75</v>
       </c>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
-      <c r="I190" s="7"/>
-      <c r="J190" s="7"/>
+      <c r="G190" s="7">
+        <f t="shared" si="10"/>
+        <v>1692653.34375</v>
+      </c>
+      <c r="H190" s="7">
+        <f t="shared" si="11"/>
+        <v>22843.75</v>
+      </c>
+      <c r="I190" s="7">
+        <f t="shared" si="12"/>
+        <v>1715497.09375</v>
+      </c>
+      <c r="J190" s="7">
+        <f t="shared" si="13"/>
+        <v>563.22749999999996</v>
+      </c>
       <c r="K190" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4568.75</v>
       </c>
       <c r="L190" s="1"/>
@@ -6935,12 +9179,24 @@
       <c r="F191" s="2">
         <v>4827.75</v>
       </c>
-      <c r="G191" s="7"/>
-      <c r="H191" s="7"/>
-      <c r="I191" s="7"/>
-      <c r="J191" s="7"/>
+      <c r="G191" s="7">
+        <f t="shared" si="10"/>
+        <v>556929.24</v>
+      </c>
+      <c r="H191" s="7">
+        <f t="shared" si="11"/>
+        <v>24138.75</v>
+      </c>
+      <c r="I191" s="7">
+        <f t="shared" si="12"/>
+        <v>581067.99</v>
+      </c>
+      <c r="J191" s="7">
+        <f t="shared" si="13"/>
+        <v>180.54</v>
+      </c>
       <c r="K191" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4827.75</v>
       </c>
       <c r="L191" s="1"/>
@@ -6965,12 +9221,24 @@
       <c r="F192" s="2">
         <v>4544.5</v>
       </c>
-      <c r="G192" s="7"/>
-      <c r="H192" s="7"/>
-      <c r="I192" s="7"/>
-      <c r="J192" s="7"/>
+      <c r="G192" s="7">
+        <f t="shared" si="10"/>
+        <v>524253.52</v>
+      </c>
+      <c r="H192" s="7">
+        <f t="shared" si="11"/>
+        <v>22722.5</v>
+      </c>
+      <c r="I192" s="7">
+        <f t="shared" si="12"/>
+        <v>546976.02</v>
+      </c>
+      <c r="J192" s="7">
+        <f t="shared" si="13"/>
+        <v>180.54</v>
+      </c>
       <c r="K192" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4544.5</v>
       </c>
       <c r="L192" s="1"/>
@@ -6995,12 +9263,24 @@
       <c r="F193" s="2">
         <v>4624.75</v>
       </c>
-      <c r="G193" s="7"/>
-      <c r="H193" s="7"/>
-      <c r="I193" s="7"/>
-      <c r="J193" s="7"/>
+      <c r="G193" s="7">
+        <f t="shared" si="10"/>
+        <v>533511.16</v>
+      </c>
+      <c r="H193" s="7">
+        <f t="shared" si="11"/>
+        <v>23123.75</v>
+      </c>
+      <c r="I193" s="7">
+        <f t="shared" si="12"/>
+        <v>556634.91</v>
+      </c>
+      <c r="J193" s="7">
+        <f t="shared" si="13"/>
+        <v>180.54</v>
+      </c>
       <c r="K193" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4624.75</v>
       </c>
       <c r="L193" s="1"/>
@@ -7025,12 +9305,24 @@
       <c r="F194" s="2">
         <v>4579.75</v>
       </c>
-      <c r="G194" s="7"/>
-      <c r="H194" s="7"/>
-      <c r="I194" s="7"/>
-      <c r="J194" s="7"/>
+      <c r="G194" s="7">
+        <f t="shared" si="10"/>
+        <v>480621.86374999996</v>
+      </c>
+      <c r="H194" s="7">
+        <f t="shared" si="11"/>
+        <v>22898.75</v>
+      </c>
+      <c r="I194" s="7">
+        <f t="shared" si="12"/>
+        <v>503520.61374999996</v>
+      </c>
+      <c r="J194" s="7">
+        <f t="shared" si="13"/>
+        <v>164.91749999999999</v>
+      </c>
       <c r="K194" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4579.75</v>
       </c>
       <c r="L194" s="1"/>
@@ -7056,12 +9348,24 @@
       <c r="F195" s="2">
         <v>4769.25</v>
       </c>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7"/>
-      <c r="I195" s="7"/>
-      <c r="J195" s="7"/>
+      <c r="G195" s="7">
+        <f t="shared" si="10"/>
+        <v>500508.94124999997</v>
+      </c>
+      <c r="H195" s="7">
+        <f t="shared" si="11"/>
+        <v>23846.25</v>
+      </c>
+      <c r="I195" s="7">
+        <f t="shared" si="12"/>
+        <v>524355.19124999992</v>
+      </c>
+      <c r="J195" s="7">
+        <f t="shared" si="13"/>
+        <v>164.91749999999999</v>
+      </c>
       <c r="K195" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>4769.25</v>
       </c>
       <c r="L195" s="1"/>
@@ -7086,12 +9390,24 @@
       <c r="F196" s="2">
         <v>3845.25</v>
       </c>
-      <c r="G196" s="7"/>
-      <c r="H196" s="7"/>
-      <c r="I196" s="7"/>
-      <c r="J196" s="7"/>
+      <c r="G196" s="7">
+        <f t="shared" si="10"/>
+        <v>403539.76124999998</v>
+      </c>
+      <c r="H196" s="7">
+        <f t="shared" si="11"/>
+        <v>19226.25</v>
+      </c>
+      <c r="I196" s="7">
+        <f t="shared" si="12"/>
+        <v>422766.01124999998</v>
+      </c>
+      <c r="J196" s="7">
+        <f t="shared" si="13"/>
+        <v>164.91749999999999</v>
+      </c>
       <c r="K196" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>3845.25</v>
       </c>
       <c r="L196" s="1"/>
@@ -7116,12 +9432,24 @@
       <c r="F197" s="2">
         <v>4988.75</v>
       </c>
-      <c r="G197" s="7"/>
-      <c r="H197" s="7"/>
-      <c r="I197" s="7"/>
-      <c r="J197" s="7"/>
+      <c r="G197" s="7">
+        <f t="shared" ref="G197:G200" si="15">E197*F197</f>
+        <v>523544.36874999997</v>
+      </c>
+      <c r="H197" s="7">
+        <f t="shared" ref="H197:H200" si="16">F197*$P$1</f>
+        <v>24943.75</v>
+      </c>
+      <c r="I197" s="7">
+        <f t="shared" ref="I197:I200" si="17">G197+H197</f>
+        <v>548488.11874999991</v>
+      </c>
+      <c r="J197" s="7">
+        <f t="shared" ref="J197:J200" si="18">(E197+$P$1)*150%</f>
+        <v>164.91749999999999</v>
+      </c>
       <c r="K197" s="3">
-        <f t="shared" ref="K197:K200" si="3">F197</f>
+        <f t="shared" ref="K197:K200" si="19">F197</f>
         <v>4988.75</v>
       </c>
       <c r="L197" s="1"/>
@@ -7146,12 +9474,24 @@
       <c r="F198" s="2">
         <v>3783.25</v>
       </c>
-      <c r="G198" s="7"/>
-      <c r="H198" s="7"/>
-      <c r="I198" s="7"/>
-      <c r="J198" s="7"/>
+      <c r="G198" s="7">
+        <f t="shared" si="15"/>
+        <v>22671.125625000001</v>
+      </c>
+      <c r="H198" s="7">
+        <f t="shared" si="16"/>
+        <v>18916.25</v>
+      </c>
+      <c r="I198" s="7">
+        <f t="shared" si="17"/>
+        <v>41587.375625000001</v>
+      </c>
+      <c r="J198" s="7">
+        <f t="shared" si="18"/>
+        <v>16.48875</v>
+      </c>
       <c r="K198" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>3783.25</v>
       </c>
       <c r="L198" s="1"/>
@@ -7176,12 +9516,24 @@
       <c r="F199" s="2">
         <v>4717.75</v>
       </c>
-      <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
-      <c r="I199" s="7"/>
-      <c r="J199" s="7"/>
+      <c r="G199" s="7">
+        <f t="shared" si="15"/>
+        <v>53015.715625000004</v>
+      </c>
+      <c r="H199" s="7">
+        <f t="shared" si="16"/>
+        <v>23588.75</v>
+      </c>
+      <c r="I199" s="7">
+        <f t="shared" si="17"/>
+        <v>76604.465625000012</v>
+      </c>
+      <c r="J199" s="7">
+        <f t="shared" si="18"/>
+        <v>24.356250000000003</v>
+      </c>
       <c r="K199" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>4717.75</v>
       </c>
       <c r="L199" s="1"/>
@@ -7206,50 +9558,675 @@
       <c r="F200" s="2">
         <v>4766.5</v>
       </c>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
-      <c r="I200" s="7"/>
-      <c r="J200" s="7"/>
+      <c r="G200" s="7">
+        <f t="shared" si="15"/>
+        <v>64276.252499999995</v>
+      </c>
+      <c r="H200" s="7">
+        <f t="shared" si="16"/>
+        <v>23832.5</v>
+      </c>
+      <c r="I200" s="7">
+        <f t="shared" si="17"/>
+        <v>88108.752500000002</v>
+      </c>
+      <c r="J200" s="7">
+        <f t="shared" si="18"/>
+        <v>27.727499999999999</v>
+      </c>
       <c r="K200" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v>4766.5</v>
       </c>
       <c r="L200" s="1"/>
       <c r="M200" s="7"/>
     </row>
     <row r="201" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G201" s="5">
-        <f t="shared" ref="G201:M201" si="4">SUM(G4:G200)</f>
+      <c r="G201" s="7"/>
+      <c r="H201" s="5">
+        <f t="shared" ref="H201:M201" si="20">SUM(H4:H200)</f>
+        <v>4301328.75</v>
+      </c>
+      <c r="I201" s="5">
+        <f t="shared" si="20"/>
+        <v>75066319.748125017</v>
+      </c>
+      <c r="J201" s="5">
+        <f t="shared" si="20"/>
+        <v>25919.879999999972</v>
+      </c>
+      <c r="K201" s="8">
+        <f t="shared" si="20"/>
+        <v>860265.75</v>
+      </c>
+      <c r="L201" s="5">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H201" s="5">
-        <f t="shared" si="4"/>
+      <c r="M201" s="5">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="I201" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J201" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K201" s="8">
-        <f t="shared" si="4"/>
-        <v>860265.75</v>
-      </c>
-      <c r="L201" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M201" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="202" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G202" s="7"/>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G203" s="7"/>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G204" s="7"/>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G205" s="7"/>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G206" s="7"/>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G207" s="7"/>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G208" s="7"/>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G209" s="7"/>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G210" s="7"/>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G211" s="7"/>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G212" s="7"/>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G213" s="7"/>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G214" s="7"/>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G215" s="7"/>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G216" s="7"/>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G217" s="7"/>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G218" s="7"/>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G219" s="7"/>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G220" s="7"/>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G221" s="7"/>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G222" s="7"/>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G223" s="7"/>
+    </row>
+    <row r="224" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G224" s="7"/>
+    </row>
+    <row r="225" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G225" s="7"/>
+    </row>
+    <row r="226" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G226" s="7"/>
+    </row>
+    <row r="227" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G227" s="7"/>
+    </row>
+    <row r="228" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G228" s="7"/>
+    </row>
+    <row r="229" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G229" s="7"/>
+    </row>
+    <row r="230" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G230" s="7"/>
+    </row>
+    <row r="231" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G231" s="7"/>
+    </row>
+    <row r="232" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G232" s="7"/>
+    </row>
+    <row r="233" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G233" s="7"/>
+    </row>
+    <row r="234" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G234" s="7"/>
+    </row>
+    <row r="235" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G235" s="7"/>
+    </row>
+    <row r="236" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G236" s="7"/>
+    </row>
+    <row r="237" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G237" s="7"/>
+    </row>
+    <row r="238" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G238" s="7"/>
+    </row>
+    <row r="239" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G239" s="7"/>
+    </row>
+    <row r="240" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G240" s="7"/>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G241" s="7"/>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G242" s="7"/>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G243" s="7"/>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G244" s="7"/>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G245" s="7"/>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G246" s="7"/>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G247" s="7"/>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G248" s="7"/>
+    </row>
+    <row r="249" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G249" s="7"/>
+    </row>
+    <row r="250" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G250" s="7"/>
+    </row>
+    <row r="251" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G251" s="7"/>
+    </row>
+    <row r="252" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G252" s="7"/>
+    </row>
+    <row r="253" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G253" s="7"/>
+    </row>
+    <row r="254" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G254" s="7"/>
+    </row>
+    <row r="255" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G255" s="7"/>
+    </row>
+    <row r="256" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G256" s="7"/>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G257" s="7"/>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G258" s="7"/>
+    </row>
+    <row r="259" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G259" s="7"/>
+    </row>
+    <row r="260" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G260" s="7"/>
+    </row>
+    <row r="261" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G261" s="7"/>
+    </row>
+    <row r="262" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G262" s="7"/>
+    </row>
+    <row r="263" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G263" s="7"/>
+    </row>
+    <row r="264" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G264" s="7"/>
+    </row>
+    <row r="265" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G265" s="7"/>
+    </row>
+    <row r="266" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G266" s="7"/>
+    </row>
+    <row r="267" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G267" s="7"/>
+    </row>
+    <row r="268" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G268" s="7"/>
+    </row>
+    <row r="269" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G269" s="7"/>
+    </row>
+    <row r="270" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G270" s="7"/>
+    </row>
+    <row r="271" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G271" s="7"/>
+    </row>
+    <row r="272" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G272" s="7"/>
+    </row>
+    <row r="273" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G273" s="7"/>
+    </row>
+    <row r="274" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G274" s="7"/>
+    </row>
+    <row r="275" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G275" s="7"/>
+    </row>
+    <row r="276" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G276" s="7"/>
+    </row>
+    <row r="277" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G277" s="7"/>
+    </row>
+    <row r="278" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G278" s="7"/>
+    </row>
+    <row r="279" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G279" s="7"/>
+    </row>
+    <row r="280" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G280" s="7"/>
+    </row>
+    <row r="281" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G281" s="7"/>
+    </row>
+    <row r="282" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G282" s="7"/>
+    </row>
+    <row r="283" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G283" s="7"/>
+    </row>
+    <row r="284" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G284" s="7"/>
+    </row>
+    <row r="285" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G285" s="7"/>
+    </row>
+    <row r="286" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G286" s="7"/>
+    </row>
+    <row r="287" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G287" s="7"/>
+    </row>
+    <row r="288" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G288" s="7"/>
+    </row>
+    <row r="289" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G289" s="7"/>
+    </row>
+    <row r="290" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G290" s="7"/>
+    </row>
+    <row r="291" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G291" s="7"/>
+    </row>
+    <row r="292" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G292" s="7"/>
+    </row>
+    <row r="293" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G293" s="7"/>
+    </row>
+    <row r="294" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G294" s="7"/>
+    </row>
+    <row r="295" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G295" s="7"/>
+    </row>
+    <row r="296" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G296" s="7"/>
+    </row>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G297" s="7"/>
+    </row>
+    <row r="298" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G298" s="7"/>
+    </row>
+    <row r="299" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G299" s="7"/>
+    </row>
+    <row r="300" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G300" s="7"/>
+    </row>
+    <row r="301" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G301" s="7"/>
+    </row>
+    <row r="302" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G302" s="7"/>
+    </row>
+    <row r="303" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G303" s="7"/>
+    </row>
+    <row r="304" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G304" s="7"/>
+    </row>
+    <row r="305" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G305" s="7"/>
+    </row>
+    <row r="306" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G306" s="7"/>
+    </row>
+    <row r="307" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G307" s="7"/>
+    </row>
+    <row r="308" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G308" s="7"/>
+    </row>
+    <row r="309" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G309" s="7"/>
+    </row>
+    <row r="310" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G310" s="7"/>
+    </row>
+    <row r="311" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G311" s="7"/>
+    </row>
+    <row r="312" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G312" s="7"/>
+    </row>
+    <row r="313" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G313" s="7"/>
+    </row>
+    <row r="314" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G314" s="7"/>
+    </row>
+    <row r="315" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G315" s="7"/>
+    </row>
+    <row r="316" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G316" s="7"/>
+    </row>
+    <row r="317" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G317" s="7"/>
+    </row>
+    <row r="318" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G318" s="7"/>
+    </row>
+    <row r="319" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G319" s="7"/>
+    </row>
+    <row r="320" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G320" s="7"/>
+    </row>
+    <row r="321" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G321" s="7"/>
+    </row>
+    <row r="322" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G322" s="7"/>
+    </row>
+    <row r="323" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G323" s="7"/>
+    </row>
+    <row r="324" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G324" s="7"/>
+    </row>
+    <row r="325" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G325" s="7"/>
+    </row>
+    <row r="326" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G326" s="7"/>
+    </row>
+    <row r="327" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G327" s="7"/>
+    </row>
+    <row r="328" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G328" s="7"/>
+    </row>
+    <row r="329" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G329" s="7"/>
+    </row>
+    <row r="330" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G330" s="7"/>
+    </row>
+    <row r="331" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G331" s="7"/>
+    </row>
+    <row r="332" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G332" s="7"/>
+    </row>
+    <row r="333" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G333" s="7"/>
+    </row>
+    <row r="334" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G334" s="7"/>
+    </row>
+    <row r="335" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G335" s="7"/>
+    </row>
+    <row r="336" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G336" s="7"/>
+    </row>
+    <row r="337" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G337" s="7"/>
+    </row>
+    <row r="338" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G338" s="7"/>
+    </row>
+    <row r="339" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G339" s="7"/>
+    </row>
+    <row r="340" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G340" s="7"/>
+    </row>
+    <row r="341" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G341" s="7"/>
+    </row>
+    <row r="342" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G342" s="7"/>
+    </row>
+    <row r="343" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G343" s="7"/>
+    </row>
+    <row r="344" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G344" s="7"/>
+    </row>
+    <row r="345" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G345" s="7"/>
+    </row>
+    <row r="346" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G346" s="7"/>
+    </row>
+    <row r="347" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G347" s="7"/>
+    </row>
+    <row r="348" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G348" s="7"/>
+    </row>
+    <row r="349" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G349" s="7"/>
+    </row>
+    <row r="350" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G350" s="7"/>
+    </row>
+    <row r="351" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G351" s="7"/>
+    </row>
+    <row r="352" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G352" s="7"/>
+    </row>
+    <row r="353" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G353" s="7"/>
+    </row>
+    <row r="354" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G354" s="7"/>
+    </row>
+    <row r="355" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G355" s="7"/>
+    </row>
+    <row r="356" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G356" s="7"/>
+    </row>
+    <row r="357" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G357" s="7"/>
+    </row>
+    <row r="358" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G358" s="7"/>
+    </row>
+    <row r="359" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G359" s="7"/>
+    </row>
+    <row r="360" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G360" s="7"/>
+    </row>
+    <row r="361" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G361" s="7"/>
+    </row>
+    <row r="362" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G362" s="7"/>
+    </row>
+    <row r="363" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G363" s="7"/>
+    </row>
+    <row r="364" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G364" s="7"/>
+    </row>
+    <row r="365" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G365" s="7"/>
+    </row>
+    <row r="366" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G366" s="7"/>
+    </row>
+    <row r="367" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G367" s="7"/>
+    </row>
+    <row r="368" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G368" s="7"/>
+    </row>
+    <row r="369" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G369" s="7"/>
+    </row>
+    <row r="370" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G370" s="7"/>
+    </row>
+    <row r="371" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G371" s="7"/>
+    </row>
+    <row r="372" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G372" s="7"/>
+    </row>
+    <row r="373" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G373" s="7"/>
+    </row>
+    <row r="374" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G374" s="7"/>
+    </row>
+    <row r="375" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G375" s="7"/>
+    </row>
+    <row r="376" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G376" s="7"/>
+    </row>
+    <row r="377" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G377" s="7"/>
+    </row>
+    <row r="378" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G378" s="7"/>
+    </row>
+    <row r="379" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G379" s="7"/>
+    </row>
+    <row r="380" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G380" s="7"/>
+    </row>
+    <row r="381" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G381" s="7"/>
+    </row>
+    <row r="382" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G382" s="7"/>
+    </row>
+    <row r="383" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G383" s="7"/>
+    </row>
+    <row r="384" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G384" s="7"/>
+    </row>
+    <row r="385" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G385" s="7"/>
+    </row>
+    <row r="386" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G386" s="7"/>
+    </row>
+    <row r="387" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G387" s="7"/>
+    </row>
+    <row r="388" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G388" s="7"/>
+    </row>
+    <row r="389" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G389" s="7"/>
+    </row>
+    <row r="390" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G390" s="7"/>
+    </row>
+    <row r="391" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G391" s="7"/>
+    </row>
+    <row r="392" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G392" s="7"/>
+    </row>
+    <row r="393" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G393" s="7"/>
+    </row>
+    <row r="394" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G394" s="7"/>
+    </row>
+    <row r="395" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G395" s="7"/>
+    </row>
+    <row r="396" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G396" s="7"/>
+    </row>
+    <row r="397" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G397" s="7"/>
+    </row>
+    <row r="398" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G398" s="7"/>
+    </row>
+    <row r="399" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G399" s="7"/>
+    </row>
+    <row r="400" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G400" s="7"/>
+    </row>
+    <row r="401" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G401" s="7"/>
+    </row>
+    <row r="402" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G402" s="7"/>
+    </row>
+    <row r="403" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G403" s="7"/>
+    </row>
+    <row r="404" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G404" s="7"/>
+    </row>
+    <row r="405" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G405" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
@@ -7258,11 +10235,6 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7270,12 +10242,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7496,20 +10470,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="15179a99-4cef-4bac-ab20-a4c03d7ec5db" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2aed4346-8012-4133-9837-e496d0f5c99a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{538C5C99-AEA9-45C8-8A4A-73C68FBF2871}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD4C417B-C4D3-4673-B18D-F0AA474BC7ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
+    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7534,12 +10509,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD4C417B-C4D3-4673-B18D-F0AA474BC7ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{538C5C99-AEA9-45C8-8A4A-73C68FBF2871}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15179a99-4cef-4bac-ab20-a4c03d7ec5db"/>
-    <ds:schemaRef ds:uri="2aed4346-8012-4133-9837-e496d0f5c99a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>